--- a/process_data/part2_data.xlsx
+++ b/process_data/part2_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pantchanit/Documents/final_stat_pant/process_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pantc\Documents\final_stat_pant\process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8A51430-0FC5-AB4E-A45F-CE97A53261A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E24B492E-F670-4120-82E9-A395968C4055}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-36960" yWindow="5840" windowWidth="38400" windowHeight="20360" xr2:uid="{848047E5-C6BC-EB45-B372-0CE20F4842FE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{848047E5-C6BC-EB45-B372-0CE20F4842FE}"/>
   </bookViews>
   <sheets>
     <sheet name="before" sheetId="1" r:id="rId1"/>
@@ -755,42 +755,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3961E6D9-BC36-9244-8173-7811CE0267C7}">
   <dimension ref="A1:AB232"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="X1" sqref="X1:X1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="28.1640625" customWidth="1"/>
-    <col min="3" max="3" width="33.33203125" customWidth="1"/>
-    <col min="4" max="4" width="35.1640625" customWidth="1"/>
-    <col min="5" max="5" width="24.83203125" customWidth="1"/>
-    <col min="6" max="6" width="19.6640625" customWidth="1"/>
+    <col min="2" max="2" width="28.19921875" customWidth="1"/>
+    <col min="3" max="3" width="33.296875" customWidth="1"/>
+    <col min="4" max="4" width="35.19921875" customWidth="1"/>
+    <col min="5" max="5" width="24.796875" customWidth="1"/>
+    <col min="6" max="6" width="19.69921875" customWidth="1"/>
     <col min="7" max="7" width="53" customWidth="1"/>
     <col min="8" max="8" width="72.5" customWidth="1"/>
     <col min="9" max="9" width="19" customWidth="1"/>
     <col min="10" max="10" width="59" customWidth="1"/>
-    <col min="11" max="11" width="33.33203125" customWidth="1"/>
+    <col min="11" max="11" width="33.296875" customWidth="1"/>
     <col min="12" max="12" width="50" customWidth="1"/>
     <col min="13" max="13" width="35.5" customWidth="1"/>
-    <col min="14" max="14" width="36.1640625" customWidth="1"/>
+    <col min="14" max="14" width="36.19921875" customWidth="1"/>
     <col min="15" max="15" width="24.5" customWidth="1"/>
-    <col min="16" max="16" width="50.6640625" customWidth="1"/>
-    <col min="17" max="17" width="52.83203125" customWidth="1"/>
-    <col min="18" max="18" width="66.83203125" customWidth="1"/>
-    <col min="19" max="19" width="17.1640625" customWidth="1"/>
+    <col min="16" max="16" width="50.69921875" customWidth="1"/>
+    <col min="17" max="17" width="52.796875" customWidth="1"/>
+    <col min="18" max="18" width="66.796875" customWidth="1"/>
+    <col min="19" max="19" width="17.19921875" customWidth="1"/>
     <col min="20" max="20" width="32.5" customWidth="1"/>
-    <col min="21" max="21" width="47.33203125" customWidth="1"/>
-    <col min="22" max="22" width="24.33203125" customWidth="1"/>
-    <col min="23" max="23" width="36.6640625" customWidth="1"/>
-    <col min="24" max="24" width="49.1640625" customWidth="1"/>
-    <col min="25" max="25" width="54.83203125" customWidth="1"/>
-    <col min="26" max="26" width="49.6640625" customWidth="1"/>
-    <col min="27" max="27" width="37.83203125" customWidth="1"/>
-    <col min="28" max="28" width="22.6640625" customWidth="1"/>
+    <col min="21" max="21" width="47.296875" customWidth="1"/>
+    <col min="22" max="22" width="24.296875" customWidth="1"/>
+    <col min="23" max="23" width="36.69921875" customWidth="1"/>
+    <col min="24" max="24" width="49.19921875" customWidth="1"/>
+    <col min="25" max="25" width="54.796875" customWidth="1"/>
+    <col min="26" max="26" width="49.69921875" customWidth="1"/>
+    <col min="27" max="27" width="37.796875" customWidth="1"/>
+    <col min="28" max="28" width="22.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -876,7 +876,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>2016</v>
       </c>
@@ -963,7 +963,7 @@
         <v>543199.31499999994</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2016</v>
       </c>
@@ -1050,7 +1050,7 @@
         <v>338818.79300000001</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>2016</v>
       </c>
@@ -1137,7 +1137,7 @@
         <v>179146.76500000001</v>
       </c>
     </row>
-    <row r="5" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>2016</v>
       </c>
@@ -1224,7 +1224,7 @@
         <v>214452.231</v>
       </c>
     </row>
-    <row r="6" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>2016</v>
       </c>
@@ -1311,7 +1311,7 @@
         <v>444803.565</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>2016</v>
       </c>
@@ -1398,7 +1398,7 @@
         <v>104812.01299999999</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>2016</v>
       </c>
@@ -1485,7 +1485,7 @@
         <v>129404.072</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>2016</v>
       </c>
@@ -1572,7 +1572,7 @@
         <v>130145.02</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>2016</v>
       </c>
@@ -1659,7 +1659,7 @@
         <v>95530.372999999992</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>2016</v>
       </c>
@@ -1746,7 +1746,7 @@
         <v>318815.52900000004</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>2016</v>
       </c>
@@ -1833,7 +1833,7 @@
         <v>521277.23499999999</v>
       </c>
     </row>
-    <row r="13" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>2016</v>
       </c>
@@ -1920,7 +1920,7 @@
         <v>972955.37699999998</v>
       </c>
     </row>
-    <row r="14" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>2016</v>
       </c>
@@ -2007,7 +2007,7 @@
         <v>205436.78699999998</v>
       </c>
     </row>
-    <row r="15" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>2016</v>
       </c>
@@ -2094,7 +2094,7 @@
         <v>142934.50599999999</v>
       </c>
     </row>
-    <row r="16" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>2016</v>
       </c>
@@ -2181,7 +2181,7 @@
         <v>430850.72599999997</v>
       </c>
     </row>
-    <row r="17" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>2016</v>
       </c>
@@ -2268,7 +2268,7 @@
         <v>384326.51699999999</v>
       </c>
     </row>
-    <row r="18" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>2016</v>
       </c>
@@ -2355,7 +2355,7 @@
         <v>99646.281000000003</v>
       </c>
     </row>
-    <row r="19" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>2016</v>
       </c>
@@ -2442,7 +2442,7 @@
         <v>68372.322</v>
       </c>
     </row>
-    <row r="20" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>2016</v>
       </c>
@@ -2529,7 +2529,7 @@
         <v>219798.929</v>
       </c>
     </row>
-    <row r="21" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>2016</v>
       </c>
@@ -2616,7 +2616,7 @@
         <v>114497.895</v>
       </c>
     </row>
-    <row r="22" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>2016</v>
       </c>
@@ -2703,7 +2703,7 @@
         <v>96338.347999999998</v>
       </c>
     </row>
-    <row r="23" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>2016</v>
       </c>
@@ -2790,7 +2790,7 @@
         <v>285395.70400000003</v>
       </c>
     </row>
-    <row r="24" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>2016</v>
       </c>
@@ -2877,7 +2877,7 @@
         <v>360974.03200000001</v>
       </c>
     </row>
-    <row r="25" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>2016</v>
       </c>
@@ -2964,7 +2964,7 @@
         <v>112675.152</v>
       </c>
     </row>
-    <row r="26" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>2016</v>
       </c>
@@ -3051,7 +3051,7 @@
         <v>128546.57299999999</v>
       </c>
     </row>
-    <row r="27" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>2016</v>
       </c>
@@ -3138,7 +3138,7 @@
         <v>178492.58199999999</v>
       </c>
     </row>
-    <row r="28" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>2016</v>
       </c>
@@ -3225,7 +3225,7 @@
         <v>124486.08899999999</v>
       </c>
     </row>
-    <row r="29" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>2016</v>
       </c>
@@ -3312,7 +3312,7 @@
         <v>178125.54499999998</v>
       </c>
     </row>
-    <row r="30" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>2016</v>
       </c>
@@ -3399,7 +3399,7 @@
         <v>94834.845000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>2016</v>
       </c>
@@ -3486,7 +3486,7 @@
         <v>76803.843999999997</v>
       </c>
     </row>
-    <row r="32" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>2016</v>
       </c>
@@ -3573,7 +3573,7 @@
         <v>69142.156000000003</v>
       </c>
     </row>
-    <row r="33" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>2016</v>
       </c>
@@ -3660,7 +3660,7 @@
         <v>67787.983000000007</v>
       </c>
     </row>
-    <row r="34" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>2016</v>
       </c>
@@ -3747,7 +3747,7 @@
         <v>85939.543999999994</v>
       </c>
     </row>
-    <row r="35" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>2016</v>
       </c>
@@ -3834,7 +3834,7 @@
         <v>86088.524999999994</v>
       </c>
     </row>
-    <row r="36" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>2016</v>
       </c>
@@ -3921,7 +3921,7 @@
         <v>54956.520999999993</v>
       </c>
     </row>
-    <row r="37" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>2016</v>
       </c>
@@ -4008,7 +4008,7 @@
         <v>107356.83100000001</v>
       </c>
     </row>
-    <row r="38" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>2016</v>
       </c>
@@ -4095,7 +4095,7 @@
         <v>93270.384000000005</v>
       </c>
     </row>
-    <row r="39" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>2016</v>
       </c>
@@ -4182,7 +4182,7 @@
         <v>136411.266</v>
       </c>
     </row>
-    <row r="40" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>2016</v>
       </c>
@@ -4269,7 +4269,7 @@
         <v>91863.188999999998</v>
       </c>
     </row>
-    <row r="41" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>2016</v>
       </c>
@@ -4356,7 +4356,7 @@
         <v>70210.631000000008</v>
       </c>
     </row>
-    <row r="42" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>2016</v>
       </c>
@@ -4443,7 +4443,7 @@
         <v>98081.623999999996</v>
       </c>
     </row>
-    <row r="43" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>2016</v>
       </c>
@@ -4530,7 +4530,7 @@
         <v>78976.833999999988</v>
       </c>
     </row>
-    <row r="44" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>2016</v>
       </c>
@@ -4617,7 +4617,7 @@
         <v>86362.582999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>2016</v>
       </c>
@@ -4704,7 +4704,7 @@
         <v>104394.175</v>
       </c>
     </row>
-    <row r="46" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>2016</v>
       </c>
@@ -4791,7 +4791,7 @@
         <v>66539.823999999993</v>
       </c>
     </row>
-    <row r="47" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>2016</v>
       </c>
@@ -4878,7 +4878,7 @@
         <v>65916.89</v>
       </c>
     </row>
-    <row r="48" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>2016</v>
       </c>
@@ -4965,7 +4965,7 @@
         <v>67214.813999999998</v>
       </c>
     </row>
-    <row r="49" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>2016</v>
       </c>
@@ -5052,7 +5052,7 @@
         <v>65924.824999999997</v>
       </c>
     </row>
-    <row r="50" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>2016</v>
       </c>
@@ -5139,7 +5139,7 @@
         <v>56173.207000000002</v>
       </c>
     </row>
-    <row r="51" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>2016</v>
       </c>
@@ -5226,7 +5226,7 @@
         <v>64246.951000000001</v>
       </c>
     </row>
-    <row r="52" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>2016</v>
       </c>
@@ -5313,7 +5313,7 @@
         <v>58487.251000000004</v>
       </c>
     </row>
-    <row r="53" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>2016</v>
       </c>
@@ -5400,7 +5400,7 @@
         <v>66476.654999999999</v>
       </c>
     </row>
-    <row r="54" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>2016</v>
       </c>
@@ -5487,7 +5487,7 @@
         <v>55952.944999999992</v>
       </c>
     </row>
-    <row r="55" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>2016</v>
       </c>
@@ -5574,7 +5574,7 @@
         <v>113717.053</v>
       </c>
     </row>
-    <row r="56" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>2016</v>
       </c>
@@ -5661,7 +5661,7 @@
         <v>82518.932000000001</v>
       </c>
     </row>
-    <row r="57" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>2016</v>
       </c>
@@ -5748,7 +5748,7 @@
         <v>85982.592999999993</v>
       </c>
     </row>
-    <row r="58" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>2016</v>
       </c>
@@ -5835,7 +5835,7 @@
         <v>85121.191000000006</v>
       </c>
     </row>
-    <row r="59" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>2016</v>
       </c>
@@ -5922,7 +5922,7 @@
         <v>67615.292000000001</v>
       </c>
     </row>
-    <row r="60" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>2016</v>
       </c>
@@ -6009,7 +6009,7 @@
         <v>65123.642</v>
       </c>
     </row>
-    <row r="61" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>2016</v>
       </c>
@@ -6096,7 +6096,7 @@
         <v>66270.899000000005</v>
       </c>
     </row>
-    <row r="62" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>2016</v>
       </c>
@@ -6183,7 +6183,7 @@
         <v>59710.881999999998</v>
       </c>
     </row>
-    <row r="63" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>2016</v>
       </c>
@@ -6270,7 +6270,7 @@
         <v>74520.71699999999</v>
       </c>
     </row>
-    <row r="64" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>2016</v>
       </c>
@@ -6357,7 +6357,7 @@
         <v>60402.235000000001</v>
       </c>
     </row>
-    <row r="65" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>2016</v>
       </c>
@@ -6444,7 +6444,7 @@
         <v>101721.11399999999</v>
       </c>
     </row>
-    <row r="66" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>2016</v>
       </c>
@@ -6531,7 +6531,7 @@
         <v>200181.32800000001</v>
       </c>
     </row>
-    <row r="67" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>2016</v>
       </c>
@@ -6618,7 +6618,7 @@
         <v>259161.75700000001</v>
       </c>
     </row>
-    <row r="68" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>2016</v>
       </c>
@@ -6705,7 +6705,7 @@
         <v>344560.12200000003</v>
       </c>
     </row>
-    <row r="69" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>2016</v>
       </c>
@@ -6792,7 +6792,7 @@
         <v>172610.37300000002</v>
       </c>
     </row>
-    <row r="70" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>2016</v>
       </c>
@@ -6879,7 +6879,7 @@
         <v>98140.585999999996</v>
       </c>
     </row>
-    <row r="71" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>2016</v>
       </c>
@@ -6966,7 +6966,7 @@
         <v>167787.31399999998</v>
       </c>
     </row>
-    <row r="72" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>2016</v>
       </c>
@@ -7053,7 +7053,7 @@
         <v>151112.84</v>
       </c>
     </row>
-    <row r="73" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>2016</v>
       </c>
@@ -7140,7 +7140,7 @@
         <v>116661.58899999999</v>
       </c>
     </row>
-    <row r="74" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>2016</v>
       </c>
@@ -7227,7 +7227,7 @@
         <v>107955.023</v>
       </c>
     </row>
-    <row r="75" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>2016</v>
       </c>
@@ -7314,7 +7314,7 @@
         <v>74661.248000000007</v>
       </c>
     </row>
-    <row r="76" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>2016</v>
       </c>
@@ -7401,7 +7401,7 @@
         <v>85424.366000000009</v>
       </c>
     </row>
-    <row r="77" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>2016</v>
       </c>
@@ -7488,7 +7488,7 @@
         <v>90907.903999999995</v>
       </c>
     </row>
-    <row r="78" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>2016</v>
       </c>
@@ -7575,7 +7575,7 @@
         <v>58708.151000000005</v>
       </c>
     </row>
-    <row r="79" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>2017</v>
       </c>
@@ -7662,7 +7662,7 @@
         <v>571438.04300000006</v>
       </c>
     </row>
-    <row r="80" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>2017</v>
       </c>
@@ -7749,7 +7749,7 @@
         <v>341950.12</v>
       </c>
     </row>
-    <row r="81" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <v>2017</v>
       </c>
@@ -7836,7 +7836,7 @@
         <v>187068.174</v>
       </c>
     </row>
-    <row r="82" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <v>2017</v>
       </c>
@@ -7923,7 +7923,7 @@
         <v>229574.848</v>
       </c>
     </row>
-    <row r="83" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>2017</v>
       </c>
@@ -8010,7 +8010,7 @@
         <v>449602.96699999995</v>
       </c>
     </row>
-    <row r="84" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <v>2017</v>
       </c>
@@ -8097,7 +8097,7 @@
         <v>114841.53599999999</v>
       </c>
     </row>
-    <row r="85" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
         <v>2017</v>
       </c>
@@ -8184,7 +8184,7 @@
         <v>142017.18</v>
       </c>
     </row>
-    <row r="86" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
         <v>2017</v>
       </c>
@@ -8271,7 +8271,7 @@
         <v>138558.04399999999</v>
       </c>
     </row>
-    <row r="87" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
         <v>2017</v>
       </c>
@@ -8358,7 +8358,7 @@
         <v>108502.018</v>
       </c>
     </row>
-    <row r="88" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
         <v>2017</v>
       </c>
@@ -8445,7 +8445,7 @@
         <v>312329.10599999997</v>
       </c>
     </row>
-    <row r="89" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
         <v>2017</v>
       </c>
@@ -8532,7 +8532,7 @@
         <v>535486.68200000003</v>
       </c>
     </row>
-    <row r="90" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
         <v>2017</v>
       </c>
@@ -8619,7 +8619,7 @@
         <v>1038355.355</v>
       </c>
     </row>
-    <row r="91" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
         <v>2017</v>
       </c>
@@ -8706,7 +8706,7 @@
         <v>248108.174</v>
       </c>
     </row>
-    <row r="92" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
         <v>2017</v>
       </c>
@@ -8793,7 +8793,7 @@
         <v>173878.59599999999</v>
       </c>
     </row>
-    <row r="93" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
         <v>2017</v>
       </c>
@@ -8880,7 +8880,7 @@
         <v>424355.16600000003</v>
       </c>
     </row>
-    <row r="94" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
         <v>2017</v>
       </c>
@@ -8967,7 +8967,7 @@
         <v>484920.21299999999</v>
       </c>
     </row>
-    <row r="95" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
         <v>2017</v>
       </c>
@@ -9054,7 +9054,7 @@
         <v>103227.193</v>
       </c>
     </row>
-    <row r="96" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
         <v>2017</v>
       </c>
@@ -9141,7 +9141,7 @@
         <v>73331.452000000005</v>
       </c>
     </row>
-    <row r="97" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
         <v>2017</v>
       </c>
@@ -9228,7 +9228,7 @@
         <v>217667.29799999998</v>
       </c>
     </row>
-    <row r="98" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
         <v>2017</v>
       </c>
@@ -9315,7 +9315,7 @@
         <v>118313.371</v>
       </c>
     </row>
-    <row r="99" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
         <v>2017</v>
       </c>
@@ -9402,7 +9402,7 @@
         <v>101977.31000000001</v>
       </c>
     </row>
-    <row r="100" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
         <v>2017</v>
       </c>
@@ -9489,7 +9489,7 @@
         <v>281055.92600000004</v>
       </c>
     </row>
-    <row r="101" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
         <v>2017</v>
       </c>
@@ -9576,7 +9576,7 @@
         <v>375087.07399999996</v>
       </c>
     </row>
-    <row r="102" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
         <v>2017</v>
       </c>
@@ -9663,7 +9663,7 @@
         <v>135543.12400000001</v>
       </c>
     </row>
-    <row r="103" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
         <v>2017</v>
       </c>
@@ -9750,7 +9750,7 @@
         <v>139191.67999999999</v>
       </c>
     </row>
-    <row r="104" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
         <v>2017</v>
       </c>
@@ -9837,7 +9837,7 @@
         <v>192603.734</v>
       </c>
     </row>
-    <row r="105" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
         <v>2017</v>
       </c>
@@ -9924,7 +9924,7 @@
         <v>129017.124</v>
       </c>
     </row>
-    <row r="106" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A106" s="1">
         <v>2017</v>
       </c>
@@ -10011,7 +10011,7 @@
         <v>193066.103</v>
       </c>
     </row>
-    <row r="107" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
         <v>2017</v>
       </c>
@@ -10098,7 +10098,7 @@
         <v>97276.100999999995</v>
       </c>
     </row>
-    <row r="108" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A108" s="1">
         <v>2017</v>
       </c>
@@ -10185,7 +10185,7 @@
         <v>88365.527000000002</v>
       </c>
     </row>
-    <row r="109" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A109" s="1">
         <v>2017</v>
       </c>
@@ -10272,7 +10272,7 @@
         <v>71543.373999999996</v>
       </c>
     </row>
-    <row r="110" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A110" s="1">
         <v>2017</v>
       </c>
@@ -10359,7 +10359,7 @@
         <v>70339.364000000001</v>
       </c>
     </row>
-    <row r="111" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A111" s="1">
         <v>2017</v>
       </c>
@@ -10446,7 +10446,7 @@
         <v>91079.281000000003</v>
       </c>
     </row>
-    <row r="112" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A112" s="1">
         <v>2017</v>
       </c>
@@ -10533,7 +10533,7 @@
         <v>89556.243000000002</v>
       </c>
     </row>
-    <row r="113" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A113" s="1">
         <v>2017</v>
       </c>
@@ -10620,7 +10620,7 @@
         <v>55661.291000000005</v>
       </c>
     </row>
-    <row r="114" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A114" s="1">
         <v>2017</v>
       </c>
@@ -10707,7 +10707,7 @@
         <v>115413.69500000001</v>
       </c>
     </row>
-    <row r="115" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A115" s="1">
         <v>2017</v>
       </c>
@@ -10794,7 +10794,7 @@
         <v>101667.97199999999</v>
       </c>
     </row>
-    <row r="116" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A116" s="1">
         <v>2017</v>
       </c>
@@ -10881,7 +10881,7 @@
         <v>140336.04800000001</v>
       </c>
     </row>
-    <row r="117" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A117" s="1">
         <v>2017</v>
       </c>
@@ -10968,7 +10968,7 @@
         <v>93503.638000000006</v>
       </c>
     </row>
-    <row r="118" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A118" s="1">
         <v>2017</v>
       </c>
@@ -11055,7 +11055,7 @@
         <v>74960.436000000002</v>
       </c>
     </row>
-    <row r="119" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A119" s="1">
         <v>2017</v>
       </c>
@@ -11142,7 +11142,7 @@
         <v>105345.107</v>
       </c>
     </row>
-    <row r="120" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A120" s="1">
         <v>2017</v>
       </c>
@@ -11229,7 +11229,7 @@
         <v>84720.724000000002</v>
       </c>
     </row>
-    <row r="121" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A121" s="1">
         <v>2017</v>
       </c>
@@ -11316,7 +11316,7 @@
         <v>83534.718999999997</v>
       </c>
     </row>
-    <row r="122" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A122" s="1">
         <v>2017</v>
       </c>
@@ -11403,7 +11403,7 @@
         <v>110050.243</v>
       </c>
     </row>
-    <row r="123" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A123" s="1">
         <v>2017</v>
       </c>
@@ -11490,7 +11490,7 @@
         <v>69157.84</v>
       </c>
     </row>
-    <row r="124" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A124" s="1">
         <v>2017</v>
       </c>
@@ -11577,7 +11577,7 @@
         <v>68498.822</v>
       </c>
     </row>
-    <row r="125" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A125" s="1">
         <v>2017</v>
       </c>
@@ -11664,7 +11664,7 @@
         <v>71027.769</v>
       </c>
     </row>
-    <row r="126" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A126" s="1">
         <v>2017</v>
       </c>
@@ -11751,7 +11751,7 @@
         <v>70424.437999999995</v>
       </c>
     </row>
-    <row r="127" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A127" s="1">
         <v>2017</v>
       </c>
@@ -11838,7 +11838,7 @@
         <v>57418.112000000001</v>
       </c>
     </row>
-    <row r="128" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A128" s="1">
         <v>2017</v>
       </c>
@@ -11925,7 +11925,7 @@
         <v>66740.069000000003</v>
       </c>
     </row>
-    <row r="129" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A129" s="1">
         <v>2017</v>
       </c>
@@ -12012,7 +12012,7 @@
         <v>61765.466</v>
       </c>
     </row>
-    <row r="130" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A130" s="1">
         <v>2017</v>
       </c>
@@ -12099,7 +12099,7 @@
         <v>76867.595000000001</v>
       </c>
     </row>
-    <row r="131" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A131" s="1">
         <v>2017</v>
       </c>
@@ -12186,7 +12186,7 @@
         <v>58209.978000000003</v>
       </c>
     </row>
-    <row r="132" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A132" s="1">
         <v>2017</v>
       </c>
@@ -12273,7 +12273,7 @@
         <v>118576.137</v>
       </c>
     </row>
-    <row r="133" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A133" s="1">
         <v>2017</v>
       </c>
@@ -12360,7 +12360,7 @@
         <v>86142.687000000005</v>
       </c>
     </row>
-    <row r="134" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A134" s="1">
         <v>2017</v>
       </c>
@@ -12447,7 +12447,7 @@
         <v>96295.961999999985</v>
       </c>
     </row>
-    <row r="135" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A135" s="1">
         <v>2017</v>
       </c>
@@ -12534,7 +12534,7 @@
         <v>87796.921000000002</v>
       </c>
     </row>
-    <row r="136" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A136" s="1">
         <v>2017</v>
       </c>
@@ -12621,7 +12621,7 @@
         <v>71417.838000000003</v>
       </c>
     </row>
-    <row r="137" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A137" s="1">
         <v>2017</v>
       </c>
@@ -12708,7 +12708,7 @@
         <v>68263.248999999996</v>
       </c>
     </row>
-    <row r="138" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A138" s="1">
         <v>2017</v>
       </c>
@@ -12795,7 +12795,7 @@
         <v>68988.020999999993</v>
       </c>
     </row>
-    <row r="139" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A139" s="1">
         <v>2017</v>
       </c>
@@ -12882,7 +12882,7 @@
         <v>61330.305999999997</v>
       </c>
     </row>
-    <row r="140" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A140" s="1">
         <v>2017</v>
       </c>
@@ -12969,7 +12969,7 @@
         <v>76029.047000000006</v>
       </c>
     </row>
-    <row r="141" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A141" s="1">
         <v>2017</v>
       </c>
@@ -13056,7 +13056,7 @@
         <v>65458.944999999992</v>
       </c>
     </row>
-    <row r="142" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A142" s="1">
         <v>2017</v>
       </c>
@@ -13143,7 +13143,7 @@
         <v>106637.117</v>
       </c>
     </row>
-    <row r="143" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A143" s="1">
         <v>2017</v>
       </c>
@@ -13230,7 +13230,7 @@
         <v>209466.78400000001</v>
       </c>
     </row>
-    <row r="144" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A144" s="1">
         <v>2017</v>
       </c>
@@ -13317,7 +13317,7 @@
         <v>297165.592</v>
       </c>
     </row>
-    <row r="145" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A145" s="1">
         <v>2017</v>
       </c>
@@ -13404,7 +13404,7 @@
         <v>371058.05800000002</v>
       </c>
     </row>
-    <row r="146" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A146" s="1">
         <v>2017</v>
       </c>
@@ -13491,7 +13491,7 @@
         <v>188028.46000000002</v>
       </c>
     </row>
-    <row r="147" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A147" s="1">
         <v>2017</v>
       </c>
@@ -13578,7 +13578,7 @@
         <v>105122.20700000001</v>
       </c>
     </row>
-    <row r="148" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A148" s="1">
         <v>2017</v>
       </c>
@@ -13665,7 +13665,7 @@
         <v>170482.535</v>
       </c>
     </row>
-    <row r="149" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A149" s="1">
         <v>2017</v>
       </c>
@@ -13752,7 +13752,7 @@
         <v>150008.777</v>
       </c>
     </row>
-    <row r="150" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A150" s="1">
         <v>2017</v>
       </c>
@@ -13839,7 +13839,7 @@
         <v>113332.38400000001</v>
       </c>
     </row>
-    <row r="151" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A151" s="1">
         <v>2017</v>
       </c>
@@ -13926,7 +13926,7 @@
         <v>112974.04300000001</v>
       </c>
     </row>
-    <row r="152" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A152" s="1">
         <v>2017</v>
       </c>
@@ -14013,7 +14013,7 @@
         <v>74398.934999999998</v>
       </c>
     </row>
-    <row r="153" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A153" s="1">
         <v>2017</v>
       </c>
@@ -14100,7 +14100,7 @@
         <v>85424.366000000009</v>
       </c>
     </row>
-    <row r="154" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A154" s="1">
         <v>2017</v>
       </c>
@@ -14187,7 +14187,7 @@
         <v>91778.388000000006</v>
       </c>
     </row>
-    <row r="155" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A155" s="1">
         <v>2017</v>
       </c>
@@ -14274,7 +14274,7 @@
         <v>56932.868000000002</v>
       </c>
     </row>
-    <row r="156" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A156" s="1">
         <v>2018</v>
       </c>
@@ -14361,7 +14361,7 @@
         <v>604420.52100000007</v>
       </c>
     </row>
-    <row r="157" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A157" s="1">
         <v>2018</v>
       </c>
@@ -14448,7 +14448,7 @@
         <v>366642.16200000001</v>
       </c>
     </row>
-    <row r="158" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A158" s="1">
         <v>2018</v>
       </c>
@@ -14535,7 +14535,7 @@
         <v>188822.079</v>
       </c>
     </row>
-    <row r="159" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A159" s="1">
         <v>2018</v>
       </c>
@@ -14622,7 +14622,7 @@
         <v>233592.53899999999</v>
       </c>
     </row>
-    <row r="160" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A160" s="1">
         <v>2018</v>
       </c>
@@ -14709,7 +14709,7 @@
         <v>454952.54100000003</v>
       </c>
     </row>
-    <row r="161" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A161" s="1">
         <v>2018</v>
       </c>
@@ -14796,7 +14796,7 @@
         <v>122158.99399999999</v>
       </c>
     </row>
-    <row r="162" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A162" s="1">
         <v>2018</v>
       </c>
@@ -14883,7 +14883,7 @@
         <v>142741.16</v>
       </c>
     </row>
-    <row r="163" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A163" s="1">
         <v>2018</v>
       </c>
@@ -14970,7 +14970,7 @@
         <v>145898.647</v>
       </c>
     </row>
-    <row r="164" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A164" s="1">
         <v>2018</v>
       </c>
@@ -15057,7 +15057,7 @@
         <v>119849.845</v>
       </c>
     </row>
-    <row r="165" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A165" s="1">
         <v>2018</v>
       </c>
@@ -15144,7 +15144,7 @@
         <v>324820.37</v>
       </c>
     </row>
-    <row r="166" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A166" s="1">
         <v>2018</v>
       </c>
@@ -15231,7 +15231,7 @@
         <v>566801.12</v>
       </c>
     </row>
-    <row r="167" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A167" s="1">
         <v>2018</v>
       </c>
@@ -15318,7 +15318,7 @@
         <v>1067449.379</v>
       </c>
     </row>
-    <row r="168" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A168" s="1">
         <v>2018</v>
       </c>
@@ -15405,7 +15405,7 @@
         <v>217393.44500000001</v>
       </c>
     </row>
-    <row r="169" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A169" s="1">
         <v>2018</v>
       </c>
@@ -15492,7 +15492,7 @@
         <v>161321.726</v>
       </c>
     </row>
-    <row r="170" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A170" s="1">
         <v>2018</v>
       </c>
@@ -15579,7 +15579,7 @@
         <v>469539.46299999999</v>
       </c>
     </row>
-    <row r="171" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A171" s="1">
         <v>2018</v>
       </c>
@@ -15666,7 +15666,7 @@
         <v>513788.80900000001</v>
       </c>
     </row>
-    <row r="172" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A172" s="1">
         <v>2018</v>
       </c>
@@ -15753,7 +15753,7 @@
         <v>116717.31299999999</v>
       </c>
     </row>
-    <row r="173" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A173" s="1">
         <v>2018</v>
       </c>
@@ -15840,7 +15840,7 @@
         <v>80716.001999999993</v>
       </c>
     </row>
-    <row r="174" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A174" s="1">
         <v>2018</v>
       </c>
@@ -15927,7 +15927,7 @@
         <v>233258.42300000001</v>
       </c>
     </row>
-    <row r="175" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A175" s="1">
         <v>2018</v>
       </c>
@@ -16014,7 +16014,7 @@
         <v>129304.4</v>
       </c>
     </row>
-    <row r="176" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A176" s="1">
         <v>2018</v>
       </c>
@@ -16101,7 +16101,7 @@
         <v>107228.383</v>
       </c>
     </row>
-    <row r="177" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A177" s="1">
         <v>2018</v>
       </c>
@@ -16188,7 +16188,7 @@
         <v>294360.65500000003</v>
       </c>
     </row>
-    <row r="178" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A178" s="1">
         <v>2018</v>
       </c>
@@ -16275,7 +16275,7 @@
         <v>389817.66899999999</v>
       </c>
     </row>
-    <row r="179" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A179" s="1">
         <v>2018</v>
       </c>
@@ -16362,7 +16362,7 @@
         <v>142807.93799999999</v>
       </c>
     </row>
-    <row r="180" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A180" s="1">
         <v>2018</v>
       </c>
@@ -16449,7 +16449,7 @@
         <v>144392.386</v>
       </c>
     </row>
-    <row r="181" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A181" s="1">
         <v>2018</v>
       </c>
@@ -16536,7 +16536,7 @@
         <v>191306.06400000001</v>
       </c>
     </row>
-    <row r="182" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A182" s="1">
         <v>2018</v>
       </c>
@@ -16623,7 +16623,7 @@
         <v>137316.038</v>
       </c>
     </row>
-    <row r="183" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A183" s="1">
         <v>2018</v>
       </c>
@@ -16710,7 +16710,7 @@
         <v>211489.28399999999</v>
       </c>
     </row>
-    <row r="184" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A184" s="1">
         <v>2018</v>
       </c>
@@ -16797,7 +16797,7 @@
         <v>100708.557</v>
       </c>
     </row>
-    <row r="185" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A185" s="1">
         <v>2018</v>
       </c>
@@ -16884,7 +16884,7 @@
         <v>94260.254000000015</v>
       </c>
     </row>
-    <row r="186" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A186" s="1">
         <v>2018</v>
       </c>
@@ -16971,7 +16971,7 @@
         <v>78276.119000000006</v>
       </c>
     </row>
-    <row r="187" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A187" s="1">
         <v>2018</v>
       </c>
@@ -17058,7 +17058,7 @@
         <v>75676.438999999998</v>
       </c>
     </row>
-    <row r="188" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A188" s="1">
         <v>2018</v>
       </c>
@@ -17145,7 +17145,7 @@
         <v>97306.468999999997</v>
       </c>
     </row>
-    <row r="189" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A189" s="1">
         <v>2018</v>
       </c>
@@ -17232,7 +17232,7 @@
         <v>95894.833999999988</v>
       </c>
     </row>
-    <row r="190" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A190" s="1">
         <v>2018</v>
       </c>
@@ -17319,7 +17319,7 @@
         <v>58369.606</v>
       </c>
     </row>
-    <row r="191" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A191" s="1">
         <v>2018</v>
       </c>
@@ -17406,7 +17406,7 @@
         <v>123864.89599999999</v>
       </c>
     </row>
-    <row r="192" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A192" s="1">
         <v>2018</v>
       </c>
@@ -17493,7 +17493,7 @@
         <v>106368.81200000001</v>
       </c>
     </row>
-    <row r="193" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A193" s="1">
         <v>2018</v>
       </c>
@@ -17580,7 +17580,7 @@
         <v>150783.25899999999</v>
       </c>
     </row>
-    <row r="194" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A194" s="1">
         <v>2018</v>
       </c>
@@ -17667,7 +17667,7 @@
         <v>99026.313999999998</v>
       </c>
     </row>
-    <row r="195" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A195" s="1">
         <v>2018</v>
       </c>
@@ -17754,7 +17754,7 @@
         <v>82146.868999999992</v>
       </c>
     </row>
-    <row r="196" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A196" s="1">
         <v>2018</v>
       </c>
@@ -17841,7 +17841,7 @@
         <v>111871.558</v>
       </c>
     </row>
-    <row r="197" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A197" s="1">
         <v>2018</v>
       </c>
@@ -17928,7 +17928,7 @@
         <v>93264.702000000005</v>
       </c>
     </row>
-    <row r="198" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A198" s="1">
         <v>2018</v>
       </c>
@@ -18015,7 +18015,7 @@
         <v>88970.903000000006</v>
       </c>
     </row>
-    <row r="199" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A199" s="1">
         <v>2018</v>
       </c>
@@ -18102,7 +18102,7 @@
         <v>117517.06300000001</v>
       </c>
     </row>
-    <row r="200" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A200" s="1">
         <v>2018</v>
       </c>
@@ -18189,7 +18189,7 @@
         <v>67142.203999999998</v>
       </c>
     </row>
-    <row r="201" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A201" s="1">
         <v>2018</v>
       </c>
@@ -18276,7 +18276,7 @@
         <v>70556.080999999991</v>
       </c>
     </row>
-    <row r="202" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A202" s="1">
         <v>2018</v>
       </c>
@@ -18363,7 +18363,7 @@
         <v>73958.100999999995</v>
       </c>
     </row>
-    <row r="203" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A203" s="1">
         <v>2018</v>
       </c>
@@ -18450,7 +18450,7 @@
         <v>71468.657999999996</v>
       </c>
     </row>
-    <row r="204" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A204" s="1">
         <v>2018</v>
       </c>
@@ -18537,7 +18537,7 @@
         <v>60055.388999999996</v>
       </c>
     </row>
-    <row r="205" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A205" s="1">
         <v>2018</v>
       </c>
@@ -18624,7 +18624,7 @@
         <v>69730.034</v>
       </c>
     </row>
-    <row r="206" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A206" s="1">
         <v>2018</v>
       </c>
@@ -18711,7 +18711,7 @@
         <v>65742.326000000001</v>
       </c>
     </row>
-    <row r="207" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A207" s="1">
         <v>2018</v>
       </c>
@@ -18798,7 +18798,7 @@
         <v>67476.495999999999</v>
       </c>
     </row>
-    <row r="208" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A208" s="1">
         <v>2018</v>
       </c>
@@ -18885,7 +18885,7 @@
         <v>60776.280999999995</v>
       </c>
     </row>
-    <row r="209" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A209" s="1">
         <v>2018</v>
       </c>
@@ -18972,7 +18972,7 @@
         <v>122950.016</v>
       </c>
     </row>
-    <row r="210" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A210" s="1">
         <v>2018</v>
       </c>
@@ -19059,7 +19059,7 @@
         <v>88193.913</v>
       </c>
     </row>
-    <row r="211" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A211" s="1">
         <v>2018</v>
       </c>
@@ -19146,7 +19146,7 @@
         <v>100796.06</v>
       </c>
     </row>
-    <row r="212" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A212" s="1">
         <v>2018</v>
       </c>
@@ -19233,7 +19233,7 @@
         <v>92825.172999999995</v>
       </c>
     </row>
-    <row r="213" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A213" s="1">
         <v>2018</v>
       </c>
@@ -19320,7 +19320,7 @@
         <v>75418.476999999999</v>
       </c>
     </row>
-    <row r="214" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A214" s="1">
         <v>2018</v>
       </c>
@@ -19407,7 +19407,7 @@
         <v>70803.228000000003</v>
       </c>
     </row>
-    <row r="215" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A215" s="1">
         <v>2018</v>
       </c>
@@ -19494,7 +19494,7 @@
         <v>73997.959000000003</v>
       </c>
     </row>
-    <row r="216" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A216" s="1">
         <v>2018</v>
       </c>
@@ -19581,7 +19581,7 @@
         <v>64083.972000000002</v>
       </c>
     </row>
-    <row r="217" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A217" s="1">
         <v>2018</v>
       </c>
@@ -19668,7 +19668,7 @@
         <v>78801.83</v>
       </c>
     </row>
-    <row r="218" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A218" s="1">
         <v>2018</v>
       </c>
@@ -19755,7 +19755,7 @@
         <v>62766.368999999999</v>
       </c>
     </row>
-    <row r="219" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A219" s="1">
         <v>2018</v>
       </c>
@@ -19842,7 +19842,7 @@
         <v>109050.113</v>
       </c>
     </row>
-    <row r="220" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A220" s="1">
         <v>2018</v>
       </c>
@@ -19929,7 +19929,7 @@
         <v>207415.37999999998</v>
       </c>
     </row>
-    <row r="221" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A221" s="1">
         <v>2018</v>
       </c>
@@ -20016,7 +20016,7 @@
         <v>313919.31300000002</v>
       </c>
     </row>
-    <row r="222" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A222" s="1">
         <v>2018</v>
       </c>
@@ -20103,7 +20103,7 @@
         <v>403533.74</v>
       </c>
     </row>
-    <row r="223" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A223" s="1">
         <v>2018</v>
       </c>
@@ -20190,7 +20190,7 @@
         <v>182370.921</v>
       </c>
     </row>
-    <row r="224" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A224" s="1">
         <v>2018</v>
       </c>
@@ -20277,7 +20277,7 @@
         <v>103966.27800000001</v>
       </c>
     </row>
-    <row r="225" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A225" s="1">
         <v>2018</v>
       </c>
@@ -20364,7 +20364,7 @@
         <v>176200.11599999998</v>
       </c>
     </row>
-    <row r="226" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A226" s="1">
         <v>2018</v>
       </c>
@@ -20451,7 +20451,7 @@
         <v>151918.15299999999</v>
       </c>
     </row>
-    <row r="227" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A227" s="1">
         <v>2018</v>
       </c>
@@ -20538,7 +20538,7 @@
         <v>107504.90700000001</v>
       </c>
     </row>
-    <row r="228" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A228" s="1">
         <v>2018</v>
       </c>
@@ -20625,7 +20625,7 @@
         <v>102589.216</v>
       </c>
     </row>
-    <row r="229" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A229" s="1">
         <v>2018</v>
       </c>
@@ -20712,7 +20712,7 @@
         <v>73212.801999999996</v>
       </c>
     </row>
-    <row r="230" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A230" s="1">
         <v>2018</v>
       </c>
@@ -20799,7 +20799,7 @@
         <v>75696.574999999997</v>
       </c>
     </row>
-    <row r="231" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A231" s="1">
         <v>2018</v>
       </c>
@@ -20886,7 +20886,7 @@
         <v>91815.154999999999</v>
       </c>
     </row>
-    <row r="232" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A232" s="1">
         <v>2018</v>
       </c>
@@ -20986,7 +20986,7 @@
       <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/process_data/part2_data.xlsx
+++ b/process_data/part2_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pantc\Documents\final_stat_pant\process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pantchanit/Documents/final_stat_pant/process_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C23B5662-FBB3-4F47-8469-2666F93DFE14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{752117B9-ABF9-A94A-A619-A094EA8F9E9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{848047E5-C6BC-EB45-B372-0CE20F4842FE}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12460" activeTab="1" xr2:uid="{848047E5-C6BC-EB45-B372-0CE20F4842FE}"/>
   </bookViews>
   <sheets>
     <sheet name="before" sheetId="1" r:id="rId1"/>
@@ -759,38 +759,38 @@
       <selection sqref="A1:AB232"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="28.19921875" customWidth="1"/>
-    <col min="3" max="3" width="33.296875" customWidth="1"/>
-    <col min="4" max="4" width="35.19921875" customWidth="1"/>
-    <col min="5" max="5" width="24.796875" customWidth="1"/>
-    <col min="6" max="6" width="19.69921875" customWidth="1"/>
+    <col min="2" max="2" width="28.1640625" customWidth="1"/>
+    <col min="3" max="3" width="33.33203125" customWidth="1"/>
+    <col min="4" max="4" width="35.1640625" customWidth="1"/>
+    <col min="5" max="5" width="24.83203125" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" customWidth="1"/>
     <col min="7" max="7" width="53" customWidth="1"/>
     <col min="8" max="8" width="72.5" customWidth="1"/>
     <col min="9" max="9" width="19" customWidth="1"/>
     <col min="10" max="10" width="59" customWidth="1"/>
-    <col min="11" max="11" width="33.296875" customWidth="1"/>
+    <col min="11" max="11" width="33.33203125" customWidth="1"/>
     <col min="12" max="12" width="50" customWidth="1"/>
     <col min="13" max="13" width="35.5" customWidth="1"/>
-    <col min="14" max="14" width="36.19921875" customWidth="1"/>
+    <col min="14" max="14" width="36.1640625" customWidth="1"/>
     <col min="15" max="15" width="24.5" customWidth="1"/>
-    <col min="16" max="16" width="50.69921875" customWidth="1"/>
-    <col min="17" max="17" width="52.796875" customWidth="1"/>
-    <col min="18" max="18" width="66.796875" customWidth="1"/>
-    <col min="19" max="19" width="17.19921875" customWidth="1"/>
+    <col min="16" max="16" width="50.6640625" customWidth="1"/>
+    <col min="17" max="17" width="52.83203125" customWidth="1"/>
+    <col min="18" max="18" width="66.83203125" customWidth="1"/>
+    <col min="19" max="19" width="17.1640625" customWidth="1"/>
     <col min="20" max="20" width="32.5" customWidth="1"/>
-    <col min="21" max="21" width="47.296875" customWidth="1"/>
-    <col min="22" max="22" width="24.296875" customWidth="1"/>
-    <col min="23" max="23" width="36.69921875" customWidth="1"/>
-    <col min="24" max="24" width="49.19921875" customWidth="1"/>
-    <col min="25" max="25" width="54.796875" customWidth="1"/>
-    <col min="26" max="26" width="49.69921875" customWidth="1"/>
-    <col min="27" max="27" width="37.796875" customWidth="1"/>
-    <col min="28" max="28" width="22.69921875" customWidth="1"/>
+    <col min="21" max="21" width="47.33203125" customWidth="1"/>
+    <col min="22" max="22" width="24.33203125" customWidth="1"/>
+    <col min="23" max="23" width="36.6640625" customWidth="1"/>
+    <col min="24" max="24" width="49.1640625" customWidth="1"/>
+    <col min="25" max="25" width="54.83203125" customWidth="1"/>
+    <col min="26" max="26" width="49.6640625" customWidth="1"/>
+    <col min="27" max="27" width="37.83203125" customWidth="1"/>
+    <col min="28" max="28" width="22.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" ht="65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -876,7 +876,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>2016</v>
       </c>
@@ -963,7 +963,7 @@
         <v>543199.31499999994</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2016</v>
       </c>
@@ -1050,7 +1050,7 @@
         <v>338818.79300000001</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2016</v>
       </c>
@@ -1137,7 +1137,7 @@
         <v>179146.76500000001</v>
       </c>
     </row>
-    <row r="5" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2016</v>
       </c>
@@ -1224,7 +1224,7 @@
         <v>214452.231</v>
       </c>
     </row>
-    <row r="6" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>2016</v>
       </c>
@@ -1311,7 +1311,7 @@
         <v>444803.565</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>2016</v>
       </c>
@@ -1398,7 +1398,7 @@
         <v>104812.01299999999</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>2016</v>
       </c>
@@ -1485,7 +1485,7 @@
         <v>129404.072</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>2016</v>
       </c>
@@ -1572,7 +1572,7 @@
         <v>130145.02</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>2016</v>
       </c>
@@ -1659,7 +1659,7 @@
         <v>95530.372999999992</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>2016</v>
       </c>
@@ -1746,7 +1746,7 @@
         <v>318815.52900000004</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>2016</v>
       </c>
@@ -1833,7 +1833,7 @@
         <v>521277.23499999999</v>
       </c>
     </row>
-    <row r="13" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>2016</v>
       </c>
@@ -1920,7 +1920,7 @@
         <v>972955.37699999998</v>
       </c>
     </row>
-    <row r="14" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>2016</v>
       </c>
@@ -2007,7 +2007,7 @@
         <v>205436.78699999998</v>
       </c>
     </row>
-    <row r="15" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>2016</v>
       </c>
@@ -2094,7 +2094,7 @@
         <v>142934.50599999999</v>
       </c>
     </row>
-    <row r="16" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>2016</v>
       </c>
@@ -2181,7 +2181,7 @@
         <v>430850.72599999997</v>
       </c>
     </row>
-    <row r="17" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>2016</v>
       </c>
@@ -2268,7 +2268,7 @@
         <v>384326.51699999999</v>
       </c>
     </row>
-    <row r="18" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>2016</v>
       </c>
@@ -2355,7 +2355,7 @@
         <v>99646.281000000003</v>
       </c>
     </row>
-    <row r="19" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>2016</v>
       </c>
@@ -2442,7 +2442,7 @@
         <v>68372.322</v>
       </c>
     </row>
-    <row r="20" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>2016</v>
       </c>
@@ -2529,7 +2529,7 @@
         <v>219798.929</v>
       </c>
     </row>
-    <row r="21" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>2016</v>
       </c>
@@ -2616,7 +2616,7 @@
         <v>114497.895</v>
       </c>
     </row>
-    <row r="22" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>2016</v>
       </c>
@@ -2703,7 +2703,7 @@
         <v>96338.347999999998</v>
       </c>
     </row>
-    <row r="23" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>2016</v>
       </c>
@@ -2790,7 +2790,7 @@
         <v>285395.70400000003</v>
       </c>
     </row>
-    <row r="24" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>2016</v>
       </c>
@@ -2877,7 +2877,7 @@
         <v>360974.03200000001</v>
       </c>
     </row>
-    <row r="25" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>2016</v>
       </c>
@@ -2964,7 +2964,7 @@
         <v>112675.152</v>
       </c>
     </row>
-    <row r="26" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>2016</v>
       </c>
@@ -3051,7 +3051,7 @@
         <v>128546.57299999999</v>
       </c>
     </row>
-    <row r="27" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>2016</v>
       </c>
@@ -3138,7 +3138,7 @@
         <v>178492.58199999999</v>
       </c>
     </row>
-    <row r="28" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>2016</v>
       </c>
@@ -3225,7 +3225,7 @@
         <v>124486.08899999999</v>
       </c>
     </row>
-    <row r="29" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>2016</v>
       </c>
@@ -3312,7 +3312,7 @@
         <v>178125.54499999998</v>
       </c>
     </row>
-    <row r="30" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>2016</v>
       </c>
@@ -3399,7 +3399,7 @@
         <v>94834.845000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>2016</v>
       </c>
@@ -3486,7 +3486,7 @@
         <v>76803.843999999997</v>
       </c>
     </row>
-    <row r="32" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>2016</v>
       </c>
@@ -3573,7 +3573,7 @@
         <v>69142.156000000003</v>
       </c>
     </row>
-    <row r="33" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>2016</v>
       </c>
@@ -3660,7 +3660,7 @@
         <v>67787.983000000007</v>
       </c>
     </row>
-    <row r="34" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>2016</v>
       </c>
@@ -3747,7 +3747,7 @@
         <v>85939.543999999994</v>
       </c>
     </row>
-    <row r="35" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>2016</v>
       </c>
@@ -3834,7 +3834,7 @@
         <v>86088.524999999994</v>
       </c>
     </row>
-    <row r="36" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>2016</v>
       </c>
@@ -3921,7 +3921,7 @@
         <v>54956.520999999993</v>
       </c>
     </row>
-    <row r="37" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>2016</v>
       </c>
@@ -4008,7 +4008,7 @@
         <v>107356.83100000001</v>
       </c>
     </row>
-    <row r="38" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>2016</v>
       </c>
@@ -4095,7 +4095,7 @@
         <v>93270.384000000005</v>
       </c>
     </row>
-    <row r="39" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>2016</v>
       </c>
@@ -4182,7 +4182,7 @@
         <v>136411.266</v>
       </c>
     </row>
-    <row r="40" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>2016</v>
       </c>
@@ -4269,7 +4269,7 @@
         <v>91863.188999999998</v>
       </c>
     </row>
-    <row r="41" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>2016</v>
       </c>
@@ -4356,7 +4356,7 @@
         <v>70210.631000000008</v>
       </c>
     </row>
-    <row r="42" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>2016</v>
       </c>
@@ -4443,7 +4443,7 @@
         <v>98081.623999999996</v>
       </c>
     </row>
-    <row r="43" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>2016</v>
       </c>
@@ -4530,7 +4530,7 @@
         <v>78976.833999999988</v>
       </c>
     </row>
-    <row r="44" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>2016</v>
       </c>
@@ -4617,7 +4617,7 @@
         <v>86362.582999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>2016</v>
       </c>
@@ -4704,7 +4704,7 @@
         <v>104394.175</v>
       </c>
     </row>
-    <row r="46" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>2016</v>
       </c>
@@ -4791,7 +4791,7 @@
         <v>66539.823999999993</v>
       </c>
     </row>
-    <row r="47" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>2016</v>
       </c>
@@ -4878,7 +4878,7 @@
         <v>65916.89</v>
       </c>
     </row>
-    <row r="48" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>2016</v>
       </c>
@@ -4965,7 +4965,7 @@
         <v>67214.813999999998</v>
       </c>
     </row>
-    <row r="49" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>2016</v>
       </c>
@@ -5052,7 +5052,7 @@
         <v>65924.824999999997</v>
       </c>
     </row>
-    <row r="50" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>2016</v>
       </c>
@@ -5139,7 +5139,7 @@
         <v>56173.207000000002</v>
       </c>
     </row>
-    <row r="51" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>2016</v>
       </c>
@@ -5226,7 +5226,7 @@
         <v>64246.951000000001</v>
       </c>
     </row>
-    <row r="52" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>2016</v>
       </c>
@@ -5313,7 +5313,7 @@
         <v>58487.251000000004</v>
       </c>
     </row>
-    <row r="53" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>2016</v>
       </c>
@@ -5400,7 +5400,7 @@
         <v>66476.654999999999</v>
       </c>
     </row>
-    <row r="54" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>2016</v>
       </c>
@@ -5487,7 +5487,7 @@
         <v>55952.944999999992</v>
       </c>
     </row>
-    <row r="55" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>2016</v>
       </c>
@@ -5574,7 +5574,7 @@
         <v>113717.053</v>
       </c>
     </row>
-    <row r="56" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>2016</v>
       </c>
@@ -5661,7 +5661,7 @@
         <v>82518.932000000001</v>
       </c>
     </row>
-    <row r="57" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>2016</v>
       </c>
@@ -5748,7 +5748,7 @@
         <v>85982.592999999993</v>
       </c>
     </row>
-    <row r="58" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>2016</v>
       </c>
@@ -5835,7 +5835,7 @@
         <v>85121.191000000006</v>
       </c>
     </row>
-    <row r="59" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>2016</v>
       </c>
@@ -5922,7 +5922,7 @@
         <v>67615.292000000001</v>
       </c>
     </row>
-    <row r="60" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>2016</v>
       </c>
@@ -6009,7 +6009,7 @@
         <v>65123.642</v>
       </c>
     </row>
-    <row r="61" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>2016</v>
       </c>
@@ -6096,7 +6096,7 @@
         <v>66270.899000000005</v>
       </c>
     </row>
-    <row r="62" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>2016</v>
       </c>
@@ -6183,7 +6183,7 @@
         <v>59710.881999999998</v>
       </c>
     </row>
-    <row r="63" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>2016</v>
       </c>
@@ -6270,7 +6270,7 @@
         <v>74520.71699999999</v>
       </c>
     </row>
-    <row r="64" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>2016</v>
       </c>
@@ -6357,7 +6357,7 @@
         <v>60402.235000000001</v>
       </c>
     </row>
-    <row r="65" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>2016</v>
       </c>
@@ -6444,7 +6444,7 @@
         <v>101721.11399999999</v>
       </c>
     </row>
-    <row r="66" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>2016</v>
       </c>
@@ -6531,7 +6531,7 @@
         <v>200181.32800000001</v>
       </c>
     </row>
-    <row r="67" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>2016</v>
       </c>
@@ -6618,7 +6618,7 @@
         <v>259161.75700000001</v>
       </c>
     </row>
-    <row r="68" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>2016</v>
       </c>
@@ -6705,7 +6705,7 @@
         <v>344560.12200000003</v>
       </c>
     </row>
-    <row r="69" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>2016</v>
       </c>
@@ -6792,7 +6792,7 @@
         <v>172610.37300000002</v>
       </c>
     </row>
-    <row r="70" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>2016</v>
       </c>
@@ -6879,7 +6879,7 @@
         <v>98140.585999999996</v>
       </c>
     </row>
-    <row r="71" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>2016</v>
       </c>
@@ -6966,7 +6966,7 @@
         <v>167787.31399999998</v>
       </c>
     </row>
-    <row r="72" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>2016</v>
       </c>
@@ -7053,7 +7053,7 @@
         <v>151112.84</v>
       </c>
     </row>
-    <row r="73" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>2016</v>
       </c>
@@ -7140,7 +7140,7 @@
         <v>116661.58899999999</v>
       </c>
     </row>
-    <row r="74" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>2016</v>
       </c>
@@ -7227,7 +7227,7 @@
         <v>107955.023</v>
       </c>
     </row>
-    <row r="75" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>2016</v>
       </c>
@@ -7314,7 +7314,7 @@
         <v>74661.248000000007</v>
       </c>
     </row>
-    <row r="76" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>2016</v>
       </c>
@@ -7401,7 +7401,7 @@
         <v>85424.366000000009</v>
       </c>
     </row>
-    <row r="77" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>2016</v>
       </c>
@@ -7488,7 +7488,7 @@
         <v>90907.903999999995</v>
       </c>
     </row>
-    <row r="78" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>2016</v>
       </c>
@@ -7575,7 +7575,7 @@
         <v>58708.151000000005</v>
       </c>
     </row>
-    <row r="79" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>2017</v>
       </c>
@@ -7662,7 +7662,7 @@
         <v>571438.04300000006</v>
       </c>
     </row>
-    <row r="80" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>2017</v>
       </c>
@@ -7749,7 +7749,7 @@
         <v>341950.12</v>
       </c>
     </row>
-    <row r="81" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>2017</v>
       </c>
@@ -7836,7 +7836,7 @@
         <v>187068.174</v>
       </c>
     </row>
-    <row r="82" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>2017</v>
       </c>
@@ -7923,7 +7923,7 @@
         <v>229574.848</v>
       </c>
     </row>
-    <row r="83" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>2017</v>
       </c>
@@ -8010,7 +8010,7 @@
         <v>449602.96699999995</v>
       </c>
     </row>
-    <row r="84" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>2017</v>
       </c>
@@ -8097,7 +8097,7 @@
         <v>114841.53599999999</v>
       </c>
     </row>
-    <row r="85" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>2017</v>
       </c>
@@ -8184,7 +8184,7 @@
         <v>142017.18</v>
       </c>
     </row>
-    <row r="86" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>2017</v>
       </c>
@@ -8271,7 +8271,7 @@
         <v>138558.04399999999</v>
       </c>
     </row>
-    <row r="87" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>2017</v>
       </c>
@@ -8358,7 +8358,7 @@
         <v>108502.018</v>
       </c>
     </row>
-    <row r="88" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>2017</v>
       </c>
@@ -8445,7 +8445,7 @@
         <v>312329.10599999997</v>
       </c>
     </row>
-    <row r="89" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>2017</v>
       </c>
@@ -8532,7 +8532,7 @@
         <v>535486.68200000003</v>
       </c>
     </row>
-    <row r="90" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>2017</v>
       </c>
@@ -8619,7 +8619,7 @@
         <v>1038355.355</v>
       </c>
     </row>
-    <row r="91" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>2017</v>
       </c>
@@ -8706,7 +8706,7 @@
         <v>248108.174</v>
       </c>
     </row>
-    <row r="92" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>2017</v>
       </c>
@@ -8793,7 +8793,7 @@
         <v>173878.59599999999</v>
       </c>
     </row>
-    <row r="93" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>2017</v>
       </c>
@@ -8880,7 +8880,7 @@
         <v>424355.16600000003</v>
       </c>
     </row>
-    <row r="94" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>2017</v>
       </c>
@@ -8967,7 +8967,7 @@
         <v>484920.21299999999</v>
       </c>
     </row>
-    <row r="95" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>2017</v>
       </c>
@@ -9054,7 +9054,7 @@
         <v>103227.193</v>
       </c>
     </row>
-    <row r="96" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>2017</v>
       </c>
@@ -9141,7 +9141,7 @@
         <v>73331.452000000005</v>
       </c>
     </row>
-    <row r="97" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>2017</v>
       </c>
@@ -9228,7 +9228,7 @@
         <v>217667.29799999998</v>
       </c>
     </row>
-    <row r="98" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>2017</v>
       </c>
@@ -9315,7 +9315,7 @@
         <v>118313.371</v>
       </c>
     </row>
-    <row r="99" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>2017</v>
       </c>
@@ -9402,7 +9402,7 @@
         <v>101977.31000000001</v>
       </c>
     </row>
-    <row r="100" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>2017</v>
       </c>
@@ -9489,7 +9489,7 @@
         <v>281055.92600000004</v>
       </c>
     </row>
-    <row r="101" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>2017</v>
       </c>
@@ -9576,7 +9576,7 @@
         <v>375087.07399999996</v>
       </c>
     </row>
-    <row r="102" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>2017</v>
       </c>
@@ -9663,7 +9663,7 @@
         <v>135543.12400000001</v>
       </c>
     </row>
-    <row r="103" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>2017</v>
       </c>
@@ -9750,7 +9750,7 @@
         <v>139191.67999999999</v>
       </c>
     </row>
-    <row r="104" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>2017</v>
       </c>
@@ -9837,7 +9837,7 @@
         <v>192603.734</v>
       </c>
     </row>
-    <row r="105" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>2017</v>
       </c>
@@ -9924,7 +9924,7 @@
         <v>129017.124</v>
       </c>
     </row>
-    <row r="106" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>2017</v>
       </c>
@@ -10011,7 +10011,7 @@
         <v>193066.103</v>
       </c>
     </row>
-    <row r="107" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>2017</v>
       </c>
@@ -10098,7 +10098,7 @@
         <v>97276.100999999995</v>
       </c>
     </row>
-    <row r="108" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>2017</v>
       </c>
@@ -10185,7 +10185,7 @@
         <v>88365.527000000002</v>
       </c>
     </row>
-    <row r="109" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>2017</v>
       </c>
@@ -10272,7 +10272,7 @@
         <v>71543.373999999996</v>
       </c>
     </row>
-    <row r="110" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>2017</v>
       </c>
@@ -10359,7 +10359,7 @@
         <v>70339.364000000001</v>
       </c>
     </row>
-    <row r="111" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>2017</v>
       </c>
@@ -10446,7 +10446,7 @@
         <v>91079.281000000003</v>
       </c>
     </row>
-    <row r="112" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>2017</v>
       </c>
@@ -10533,7 +10533,7 @@
         <v>89556.243000000002</v>
       </c>
     </row>
-    <row r="113" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>2017</v>
       </c>
@@ -10620,7 +10620,7 @@
         <v>55661.291000000005</v>
       </c>
     </row>
-    <row r="114" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>2017</v>
       </c>
@@ -10707,7 +10707,7 @@
         <v>115413.69500000001</v>
       </c>
     </row>
-    <row r="115" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>2017</v>
       </c>
@@ -10794,7 +10794,7 @@
         <v>101667.97199999999</v>
       </c>
     </row>
-    <row r="116" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>2017</v>
       </c>
@@ -10881,7 +10881,7 @@
         <v>140336.04800000001</v>
       </c>
     </row>
-    <row r="117" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>2017</v>
       </c>
@@ -10968,7 +10968,7 @@
         <v>93503.638000000006</v>
       </c>
     </row>
-    <row r="118" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>2017</v>
       </c>
@@ -11055,7 +11055,7 @@
         <v>74960.436000000002</v>
       </c>
     </row>
-    <row r="119" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>2017</v>
       </c>
@@ -11142,7 +11142,7 @@
         <v>105345.107</v>
       </c>
     </row>
-    <row r="120" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>2017</v>
       </c>
@@ -11229,7 +11229,7 @@
         <v>84720.724000000002</v>
       </c>
     </row>
-    <row r="121" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>2017</v>
       </c>
@@ -11316,7 +11316,7 @@
         <v>83534.718999999997</v>
       </c>
     </row>
-    <row r="122" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>2017</v>
       </c>
@@ -11403,7 +11403,7 @@
         <v>110050.243</v>
       </c>
     </row>
-    <row r="123" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>2017</v>
       </c>
@@ -11490,7 +11490,7 @@
         <v>69157.84</v>
       </c>
     </row>
-    <row r="124" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>2017</v>
       </c>
@@ -11577,7 +11577,7 @@
         <v>68498.822</v>
       </c>
     </row>
-    <row r="125" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>2017</v>
       </c>
@@ -11664,7 +11664,7 @@
         <v>71027.769</v>
       </c>
     </row>
-    <row r="126" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>2017</v>
       </c>
@@ -11751,7 +11751,7 @@
         <v>70424.437999999995</v>
       </c>
     </row>
-    <row r="127" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>2017</v>
       </c>
@@ -11838,7 +11838,7 @@
         <v>57418.112000000001</v>
       </c>
     </row>
-    <row r="128" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>2017</v>
       </c>
@@ -11925,7 +11925,7 @@
         <v>66740.069000000003</v>
       </c>
     </row>
-    <row r="129" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>2017</v>
       </c>
@@ -12012,7 +12012,7 @@
         <v>61765.466</v>
       </c>
     </row>
-    <row r="130" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>2017</v>
       </c>
@@ -12099,7 +12099,7 @@
         <v>76867.595000000001</v>
       </c>
     </row>
-    <row r="131" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>2017</v>
       </c>
@@ -12186,7 +12186,7 @@
         <v>58209.978000000003</v>
       </c>
     </row>
-    <row r="132" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>2017</v>
       </c>
@@ -12273,7 +12273,7 @@
         <v>118576.137</v>
       </c>
     </row>
-    <row r="133" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>2017</v>
       </c>
@@ -12360,7 +12360,7 @@
         <v>86142.687000000005</v>
       </c>
     </row>
-    <row r="134" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>2017</v>
       </c>
@@ -12447,7 +12447,7 @@
         <v>96295.961999999985</v>
       </c>
     </row>
-    <row r="135" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>2017</v>
       </c>
@@ -12534,7 +12534,7 @@
         <v>87796.921000000002</v>
       </c>
     </row>
-    <row r="136" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>2017</v>
       </c>
@@ -12621,7 +12621,7 @@
         <v>71417.838000000003</v>
       </c>
     </row>
-    <row r="137" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>2017</v>
       </c>
@@ -12708,7 +12708,7 @@
         <v>68263.248999999996</v>
       </c>
     </row>
-    <row r="138" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>2017</v>
       </c>
@@ -12795,7 +12795,7 @@
         <v>68988.020999999993</v>
       </c>
     </row>
-    <row r="139" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>2017</v>
       </c>
@@ -12882,7 +12882,7 @@
         <v>61330.305999999997</v>
       </c>
     </row>
-    <row r="140" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>2017</v>
       </c>
@@ -12969,7 +12969,7 @@
         <v>76029.047000000006</v>
       </c>
     </row>
-    <row r="141" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>2017</v>
       </c>
@@ -13056,7 +13056,7 @@
         <v>65458.944999999992</v>
       </c>
     </row>
-    <row r="142" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>2017</v>
       </c>
@@ -13143,7 +13143,7 @@
         <v>106637.117</v>
       </c>
     </row>
-    <row r="143" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>2017</v>
       </c>
@@ -13230,7 +13230,7 @@
         <v>209466.78400000001</v>
       </c>
     </row>
-    <row r="144" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>2017</v>
       </c>
@@ -13317,7 +13317,7 @@
         <v>297165.592</v>
       </c>
     </row>
-    <row r="145" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>2017</v>
       </c>
@@ -13404,7 +13404,7 @@
         <v>371058.05800000002</v>
       </c>
     </row>
-    <row r="146" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>2017</v>
       </c>
@@ -13491,7 +13491,7 @@
         <v>188028.46000000002</v>
       </c>
     </row>
-    <row r="147" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>2017</v>
       </c>
@@ -13578,7 +13578,7 @@
         <v>105122.20700000001</v>
       </c>
     </row>
-    <row r="148" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>2017</v>
       </c>
@@ -13665,7 +13665,7 @@
         <v>170482.535</v>
       </c>
     </row>
-    <row r="149" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>2017</v>
       </c>
@@ -13752,7 +13752,7 @@
         <v>150008.777</v>
       </c>
     </row>
-    <row r="150" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>2017</v>
       </c>
@@ -13839,7 +13839,7 @@
         <v>113332.38400000001</v>
       </c>
     </row>
-    <row r="151" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>2017</v>
       </c>
@@ -13926,7 +13926,7 @@
         <v>112974.04300000001</v>
       </c>
     </row>
-    <row r="152" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>2017</v>
       </c>
@@ -14013,7 +14013,7 @@
         <v>74398.934999999998</v>
       </c>
     </row>
-    <row r="153" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>2017</v>
       </c>
@@ -14100,7 +14100,7 @@
         <v>85424.366000000009</v>
       </c>
     </row>
-    <row r="154" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>2017</v>
       </c>
@@ -14187,7 +14187,7 @@
         <v>91778.388000000006</v>
       </c>
     </row>
-    <row r="155" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>2017</v>
       </c>
@@ -14274,7 +14274,7 @@
         <v>56932.868000000002</v>
       </c>
     </row>
-    <row r="156" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>2018</v>
       </c>
@@ -14361,7 +14361,7 @@
         <v>604420.52100000007</v>
       </c>
     </row>
-    <row r="157" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>2018</v>
       </c>
@@ -14448,7 +14448,7 @@
         <v>366642.16200000001</v>
       </c>
     </row>
-    <row r="158" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>2018</v>
       </c>
@@ -14535,7 +14535,7 @@
         <v>188822.079</v>
       </c>
     </row>
-    <row r="159" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>2018</v>
       </c>
@@ -14622,7 +14622,7 @@
         <v>233592.53899999999</v>
       </c>
     </row>
-    <row r="160" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>2018</v>
       </c>
@@ -14709,7 +14709,7 @@
         <v>454952.54100000003</v>
       </c>
     </row>
-    <row r="161" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>2018</v>
       </c>
@@ -14796,7 +14796,7 @@
         <v>122158.99399999999</v>
       </c>
     </row>
-    <row r="162" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>2018</v>
       </c>
@@ -14883,7 +14883,7 @@
         <v>142741.16</v>
       </c>
     </row>
-    <row r="163" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>2018</v>
       </c>
@@ -14970,7 +14970,7 @@
         <v>145898.647</v>
       </c>
     </row>
-    <row r="164" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>2018</v>
       </c>
@@ -15057,7 +15057,7 @@
         <v>119849.845</v>
       </c>
     </row>
-    <row r="165" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>2018</v>
       </c>
@@ -15144,7 +15144,7 @@
         <v>324820.37</v>
       </c>
     </row>
-    <row r="166" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>2018</v>
       </c>
@@ -15231,7 +15231,7 @@
         <v>566801.12</v>
       </c>
     </row>
-    <row r="167" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>2018</v>
       </c>
@@ -15318,7 +15318,7 @@
         <v>1067449.379</v>
       </c>
     </row>
-    <row r="168" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>2018</v>
       </c>
@@ -15405,7 +15405,7 @@
         <v>217393.44500000001</v>
       </c>
     </row>
-    <row r="169" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>2018</v>
       </c>
@@ -15492,7 +15492,7 @@
         <v>161321.726</v>
       </c>
     </row>
-    <row r="170" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>2018</v>
       </c>
@@ -15579,7 +15579,7 @@
         <v>469539.46299999999</v>
       </c>
     </row>
-    <row r="171" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>2018</v>
       </c>
@@ -15666,7 +15666,7 @@
         <v>513788.80900000001</v>
       </c>
     </row>
-    <row r="172" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>2018</v>
       </c>
@@ -15753,7 +15753,7 @@
         <v>116717.31299999999</v>
       </c>
     </row>
-    <row r="173" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>2018</v>
       </c>
@@ -15840,7 +15840,7 @@
         <v>80716.001999999993</v>
       </c>
     </row>
-    <row r="174" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>2018</v>
       </c>
@@ -15927,7 +15927,7 @@
         <v>233258.42300000001</v>
       </c>
     </row>
-    <row r="175" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>2018</v>
       </c>
@@ -16014,7 +16014,7 @@
         <v>129304.4</v>
       </c>
     </row>
-    <row r="176" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>2018</v>
       </c>
@@ -16101,7 +16101,7 @@
         <v>107228.383</v>
       </c>
     </row>
-    <row r="177" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>2018</v>
       </c>
@@ -16188,7 +16188,7 @@
         <v>294360.65500000003</v>
       </c>
     </row>
-    <row r="178" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>2018</v>
       </c>
@@ -16275,7 +16275,7 @@
         <v>389817.66899999999</v>
       </c>
     </row>
-    <row r="179" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>2018</v>
       </c>
@@ -16362,7 +16362,7 @@
         <v>142807.93799999999</v>
       </c>
     </row>
-    <row r="180" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>2018</v>
       </c>
@@ -16449,7 +16449,7 @@
         <v>144392.386</v>
       </c>
     </row>
-    <row r="181" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>2018</v>
       </c>
@@ -16536,7 +16536,7 @@
         <v>191306.06400000001</v>
       </c>
     </row>
-    <row r="182" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>2018</v>
       </c>
@@ -16623,7 +16623,7 @@
         <v>137316.038</v>
       </c>
     </row>
-    <row r="183" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>2018</v>
       </c>
@@ -16710,7 +16710,7 @@
         <v>211489.28399999999</v>
       </c>
     </row>
-    <row r="184" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>2018</v>
       </c>
@@ -16797,7 +16797,7 @@
         <v>100708.557</v>
       </c>
     </row>
-    <row r="185" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>2018</v>
       </c>
@@ -16884,7 +16884,7 @@
         <v>94260.254000000015</v>
       </c>
     </row>
-    <row r="186" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>2018</v>
       </c>
@@ -16971,7 +16971,7 @@
         <v>78276.119000000006</v>
       </c>
     </row>
-    <row r="187" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>2018</v>
       </c>
@@ -17058,7 +17058,7 @@
         <v>75676.438999999998</v>
       </c>
     </row>
-    <row r="188" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>2018</v>
       </c>
@@ -17145,7 +17145,7 @@
         <v>97306.468999999997</v>
       </c>
     </row>
-    <row r="189" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>2018</v>
       </c>
@@ -17232,7 +17232,7 @@
         <v>95894.833999999988</v>
       </c>
     </row>
-    <row r="190" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>2018</v>
       </c>
@@ -17319,7 +17319,7 @@
         <v>58369.606</v>
       </c>
     </row>
-    <row r="191" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>2018</v>
       </c>
@@ -17406,7 +17406,7 @@
         <v>123864.89599999999</v>
       </c>
     </row>
-    <row r="192" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>2018</v>
       </c>
@@ -17493,7 +17493,7 @@
         <v>106368.81200000001</v>
       </c>
     </row>
-    <row r="193" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>2018</v>
       </c>
@@ -17580,7 +17580,7 @@
         <v>150783.25899999999</v>
       </c>
     </row>
-    <row r="194" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>2018</v>
       </c>
@@ -17667,7 +17667,7 @@
         <v>99026.313999999998</v>
       </c>
     </row>
-    <row r="195" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>2018</v>
       </c>
@@ -17754,7 +17754,7 @@
         <v>82146.868999999992</v>
       </c>
     </row>
-    <row r="196" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>2018</v>
       </c>
@@ -17841,7 +17841,7 @@
         <v>111871.558</v>
       </c>
     </row>
-    <row r="197" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>2018</v>
       </c>
@@ -17928,7 +17928,7 @@
         <v>93264.702000000005</v>
       </c>
     </row>
-    <row r="198" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>2018</v>
       </c>
@@ -18015,7 +18015,7 @@
         <v>88970.903000000006</v>
       </c>
     </row>
-    <row r="199" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>2018</v>
       </c>
@@ -18102,7 +18102,7 @@
         <v>117517.06300000001</v>
       </c>
     </row>
-    <row r="200" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>2018</v>
       </c>
@@ -18189,7 +18189,7 @@
         <v>67142.203999999998</v>
       </c>
     </row>
-    <row r="201" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>2018</v>
       </c>
@@ -18276,7 +18276,7 @@
         <v>70556.080999999991</v>
       </c>
     </row>
-    <row r="202" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>2018</v>
       </c>
@@ -18363,7 +18363,7 @@
         <v>73958.100999999995</v>
       </c>
     </row>
-    <row r="203" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>2018</v>
       </c>
@@ -18450,7 +18450,7 @@
         <v>71468.657999999996</v>
       </c>
     </row>
-    <row r="204" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>2018</v>
       </c>
@@ -18537,7 +18537,7 @@
         <v>60055.388999999996</v>
       </c>
     </row>
-    <row r="205" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>2018</v>
       </c>
@@ -18624,7 +18624,7 @@
         <v>69730.034</v>
       </c>
     </row>
-    <row r="206" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>2018</v>
       </c>
@@ -18711,7 +18711,7 @@
         <v>65742.326000000001</v>
       </c>
     </row>
-    <row r="207" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>2018</v>
       </c>
@@ -18798,7 +18798,7 @@
         <v>67476.495999999999</v>
       </c>
     </row>
-    <row r="208" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>2018</v>
       </c>
@@ -18885,7 +18885,7 @@
         <v>60776.280999999995</v>
       </c>
     </row>
-    <row r="209" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>2018</v>
       </c>
@@ -18972,7 +18972,7 @@
         <v>122950.016</v>
       </c>
     </row>
-    <row r="210" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>2018</v>
       </c>
@@ -19059,7 +19059,7 @@
         <v>88193.913</v>
       </c>
     </row>
-    <row r="211" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>2018</v>
       </c>
@@ -19146,7 +19146,7 @@
         <v>100796.06</v>
       </c>
     </row>
-    <row r="212" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>2018</v>
       </c>
@@ -19233,7 +19233,7 @@
         <v>92825.172999999995</v>
       </c>
     </row>
-    <row r="213" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>2018</v>
       </c>
@@ -19320,7 +19320,7 @@
         <v>75418.476999999999</v>
       </c>
     </row>
-    <row r="214" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>2018</v>
       </c>
@@ -19407,7 +19407,7 @@
         <v>70803.228000000003</v>
       </c>
     </row>
-    <row r="215" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>2018</v>
       </c>
@@ -19494,7 +19494,7 @@
         <v>73997.959000000003</v>
       </c>
     </row>
-    <row r="216" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>2018</v>
       </c>
@@ -19581,7 +19581,7 @@
         <v>64083.972000000002</v>
       </c>
     </row>
-    <row r="217" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>2018</v>
       </c>
@@ -19668,7 +19668,7 @@
         <v>78801.83</v>
       </c>
     </row>
-    <row r="218" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>2018</v>
       </c>
@@ -19755,7 +19755,7 @@
         <v>62766.368999999999</v>
       </c>
     </row>
-    <row r="219" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>2018</v>
       </c>
@@ -19842,7 +19842,7 @@
         <v>109050.113</v>
       </c>
     </row>
-    <row r="220" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>2018</v>
       </c>
@@ -19929,7 +19929,7 @@
         <v>207415.37999999998</v>
       </c>
     </row>
-    <row r="221" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>2018</v>
       </c>
@@ -20016,7 +20016,7 @@
         <v>313919.31300000002</v>
       </c>
     </row>
-    <row r="222" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>2018</v>
       </c>
@@ -20103,7 +20103,7 @@
         <v>403533.74</v>
       </c>
     </row>
-    <row r="223" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>2018</v>
       </c>
@@ -20190,7 +20190,7 @@
         <v>182370.921</v>
       </c>
     </row>
-    <row r="224" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>2018</v>
       </c>
@@ -20277,7 +20277,7 @@
         <v>103966.27800000001</v>
       </c>
     </row>
-    <row r="225" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>2018</v>
       </c>
@@ -20364,7 +20364,7 @@
         <v>176200.11599999998</v>
       </c>
     </row>
-    <row r="226" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>2018</v>
       </c>
@@ -20451,7 +20451,7 @@
         <v>151918.15299999999</v>
       </c>
     </row>
-    <row r="227" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>2018</v>
       </c>
@@ -20538,7 +20538,7 @@
         <v>107504.90700000001</v>
       </c>
     </row>
-    <row r="228" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>2018</v>
       </c>
@@ -20625,7 +20625,7 @@
         <v>102589.216</v>
       </c>
     </row>
-    <row r="229" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>2018</v>
       </c>
@@ -20712,7 +20712,7 @@
         <v>73212.801999999996</v>
       </c>
     </row>
-    <row r="230" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>2018</v>
       </c>
@@ -20799,7 +20799,7 @@
         <v>75696.574999999997</v>
       </c>
     </row>
-    <row r="231" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>2018</v>
       </c>
@@ -20886,7 +20886,7 @@
         <v>91815.154999999999</v>
       </c>
     </row>
-    <row r="232" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>2018</v>
       </c>
@@ -20982,13 +20982,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D3E6723-211E-F648-A238-C53A2A05C911}">
   <dimension ref="A1:X232"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="U11" sqref="U11"/>
+    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
+      <selection activeCell="C167" sqref="C167"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="26.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" ht="19" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -21062,7 +21065,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>2016</v>
       </c>
@@ -21137,7 +21140,7 @@
         <v>543199.31499999994</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2016</v>
       </c>
@@ -21212,7 +21215,7 @@
         <v>338818.79300000001</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2016</v>
       </c>
@@ -21287,7 +21290,7 @@
         <v>179146.76500000001</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2016</v>
       </c>
@@ -21362,7 +21365,7 @@
         <v>214452.231</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>2016</v>
       </c>
@@ -21437,7 +21440,7 @@
         <v>444803.565</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>2016</v>
       </c>
@@ -21512,7 +21515,7 @@
         <v>104812.01299999999</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>2016</v>
       </c>
@@ -21587,7 +21590,7 @@
         <v>129404.072</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>2016</v>
       </c>
@@ -21662,7 +21665,7 @@
         <v>130145.02</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>2016</v>
       </c>
@@ -21737,7 +21740,7 @@
         <v>95530.372999999992</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>2016</v>
       </c>
@@ -21812,7 +21815,7 @@
         <v>318815.52900000004</v>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>2016</v>
       </c>
@@ -21887,7 +21890,7 @@
         <v>521277.23499999999</v>
       </c>
     </row>
-    <row r="13" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>2016</v>
       </c>
@@ -21962,7 +21965,7 @@
         <v>972955.37699999998</v>
       </c>
     </row>
-    <row r="14" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>2016</v>
       </c>
@@ -22037,7 +22040,7 @@
         <v>205436.78699999998</v>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>2016</v>
       </c>
@@ -22112,7 +22115,7 @@
         <v>142934.50599999999</v>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>2016</v>
       </c>
@@ -22187,7 +22190,7 @@
         <v>430850.72599999997</v>
       </c>
     </row>
-    <row r="17" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>2016</v>
       </c>
@@ -22262,7 +22265,7 @@
         <v>384326.51699999999</v>
       </c>
     </row>
-    <row r="18" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>2016</v>
       </c>
@@ -22337,7 +22340,7 @@
         <v>99646.281000000003</v>
       </c>
     </row>
-    <row r="19" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>2016</v>
       </c>
@@ -22412,7 +22415,7 @@
         <v>68372.322</v>
       </c>
     </row>
-    <row r="20" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>2016</v>
       </c>
@@ -22487,7 +22490,7 @@
         <v>219798.929</v>
       </c>
     </row>
-    <row r="21" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>2016</v>
       </c>
@@ -22562,7 +22565,7 @@
         <v>114497.895</v>
       </c>
     </row>
-    <row r="22" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>2016</v>
       </c>
@@ -22637,7 +22640,7 @@
         <v>96338.347999999998</v>
       </c>
     </row>
-    <row r="23" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>2016</v>
       </c>
@@ -22712,7 +22715,7 @@
         <v>285395.70400000003</v>
       </c>
     </row>
-    <row r="24" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>2016</v>
       </c>
@@ -22787,7 +22790,7 @@
         <v>360974.03200000001</v>
       </c>
     </row>
-    <row r="25" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>2016</v>
       </c>
@@ -22862,7 +22865,7 @@
         <v>112675.152</v>
       </c>
     </row>
-    <row r="26" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>2016</v>
       </c>
@@ -22937,7 +22940,7 @@
         <v>128546.57299999999</v>
       </c>
     </row>
-    <row r="27" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>2016</v>
       </c>
@@ -23012,7 +23015,7 @@
         <v>178492.58199999999</v>
       </c>
     </row>
-    <row r="28" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>2016</v>
       </c>
@@ -23087,7 +23090,7 @@
         <v>124486.08899999999</v>
       </c>
     </row>
-    <row r="29" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>2016</v>
       </c>
@@ -23162,7 +23165,7 @@
         <v>178125.54499999998</v>
       </c>
     </row>
-    <row r="30" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>2016</v>
       </c>
@@ -23237,7 +23240,7 @@
         <v>94834.845000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>2016</v>
       </c>
@@ -23312,7 +23315,7 @@
         <v>76803.843999999997</v>
       </c>
     </row>
-    <row r="32" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>2016</v>
       </c>
@@ -23387,7 +23390,7 @@
         <v>69142.156000000003</v>
       </c>
     </row>
-    <row r="33" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>2016</v>
       </c>
@@ -23462,7 +23465,7 @@
         <v>67787.983000000007</v>
       </c>
     </row>
-    <row r="34" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>2016</v>
       </c>
@@ -23537,7 +23540,7 @@
         <v>85939.543999999994</v>
       </c>
     </row>
-    <row r="35" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>2016</v>
       </c>
@@ -23612,7 +23615,7 @@
         <v>86088.524999999994</v>
       </c>
     </row>
-    <row r="36" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>2016</v>
       </c>
@@ -23687,7 +23690,7 @@
         <v>54956.520999999993</v>
       </c>
     </row>
-    <row r="37" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>2016</v>
       </c>
@@ -23762,7 +23765,7 @@
         <v>107356.83100000001</v>
       </c>
     </row>
-    <row r="38" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>2016</v>
       </c>
@@ -23837,7 +23840,7 @@
         <v>93270.384000000005</v>
       </c>
     </row>
-    <row r="39" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>2016</v>
       </c>
@@ -23912,7 +23915,7 @@
         <v>136411.266</v>
       </c>
     </row>
-    <row r="40" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>2016</v>
       </c>
@@ -23987,7 +23990,7 @@
         <v>91863.188999999998</v>
       </c>
     </row>
-    <row r="41" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>2016</v>
       </c>
@@ -24062,7 +24065,7 @@
         <v>70210.631000000008</v>
       </c>
     </row>
-    <row r="42" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>2016</v>
       </c>
@@ -24137,7 +24140,7 @@
         <v>98081.623999999996</v>
       </c>
     </row>
-    <row r="43" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>2016</v>
       </c>
@@ -24212,7 +24215,7 @@
         <v>78976.833999999988</v>
       </c>
     </row>
-    <row r="44" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>2016</v>
       </c>
@@ -24287,7 +24290,7 @@
         <v>86362.582999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>2016</v>
       </c>
@@ -24362,7 +24365,7 @@
         <v>104394.175</v>
       </c>
     </row>
-    <row r="46" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>2016</v>
       </c>
@@ -24437,7 +24440,7 @@
         <v>66539.823999999993</v>
       </c>
     </row>
-    <row r="47" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>2016</v>
       </c>
@@ -24512,7 +24515,7 @@
         <v>65916.89</v>
       </c>
     </row>
-    <row r="48" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>2016</v>
       </c>
@@ -24587,7 +24590,7 @@
         <v>67214.813999999998</v>
       </c>
     </row>
-    <row r="49" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>2016</v>
       </c>
@@ -24662,7 +24665,7 @@
         <v>65924.824999999997</v>
       </c>
     </row>
-    <row r="50" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>2016</v>
       </c>
@@ -24737,7 +24740,7 @@
         <v>56173.207000000002</v>
       </c>
     </row>
-    <row r="51" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>2016</v>
       </c>
@@ -24812,7 +24815,7 @@
         <v>64246.951000000001</v>
       </c>
     </row>
-    <row r="52" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>2016</v>
       </c>
@@ -24887,7 +24890,7 @@
         <v>58487.251000000004</v>
       </c>
     </row>
-    <row r="53" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>2016</v>
       </c>
@@ -24962,7 +24965,7 @@
         <v>66476.654999999999</v>
       </c>
     </row>
-    <row r="54" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>2016</v>
       </c>
@@ -25037,7 +25040,7 @@
         <v>55952.944999999992</v>
       </c>
     </row>
-    <row r="55" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>2016</v>
       </c>
@@ -25112,7 +25115,7 @@
         <v>113717.053</v>
       </c>
     </row>
-    <row r="56" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>2016</v>
       </c>
@@ -25187,7 +25190,7 @@
         <v>82518.932000000001</v>
       </c>
     </row>
-    <row r="57" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>2016</v>
       </c>
@@ -25262,7 +25265,7 @@
         <v>85982.592999999993</v>
       </c>
     </row>
-    <row r="58" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>2016</v>
       </c>
@@ -25337,7 +25340,7 @@
         <v>85121.191000000006</v>
       </c>
     </row>
-    <row r="59" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>2016</v>
       </c>
@@ -25412,7 +25415,7 @@
         <v>67615.292000000001</v>
       </c>
     </row>
-    <row r="60" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>2016</v>
       </c>
@@ -25487,7 +25490,7 @@
         <v>65123.642</v>
       </c>
     </row>
-    <row r="61" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>2016</v>
       </c>
@@ -25562,7 +25565,7 @@
         <v>66270.899000000005</v>
       </c>
     </row>
-    <row r="62" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>2016</v>
       </c>
@@ -25637,7 +25640,7 @@
         <v>59710.881999999998</v>
       </c>
     </row>
-    <row r="63" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>2016</v>
       </c>
@@ -25712,7 +25715,7 @@
         <v>74520.71699999999</v>
       </c>
     </row>
-    <row r="64" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>2016</v>
       </c>
@@ -25787,7 +25790,7 @@
         <v>60402.235000000001</v>
       </c>
     </row>
-    <row r="65" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>2016</v>
       </c>
@@ -25862,7 +25865,7 @@
         <v>101721.11399999999</v>
       </c>
     </row>
-    <row r="66" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>2016</v>
       </c>
@@ -25937,7 +25940,7 @@
         <v>200181.32800000001</v>
       </c>
     </row>
-    <row r="67" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>2016</v>
       </c>
@@ -26012,7 +26015,7 @@
         <v>259161.75700000001</v>
       </c>
     </row>
-    <row r="68" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>2016</v>
       </c>
@@ -26087,7 +26090,7 @@
         <v>344560.12200000003</v>
       </c>
     </row>
-    <row r="69" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>2016</v>
       </c>
@@ -26162,7 +26165,7 @@
         <v>172610.37300000002</v>
       </c>
     </row>
-    <row r="70" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>2016</v>
       </c>
@@ -26237,7 +26240,7 @@
         <v>98140.585999999996</v>
       </c>
     </row>
-    <row r="71" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>2016</v>
       </c>
@@ -26312,7 +26315,7 @@
         <v>167787.31399999998</v>
       </c>
     </row>
-    <row r="72" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>2016</v>
       </c>
@@ -26387,7 +26390,7 @@
         <v>151112.84</v>
       </c>
     </row>
-    <row r="73" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>2016</v>
       </c>
@@ -26462,7 +26465,7 @@
         <v>116661.58899999999</v>
       </c>
     </row>
-    <row r="74" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>2016</v>
       </c>
@@ -26537,7 +26540,7 @@
         <v>107955.023</v>
       </c>
     </row>
-    <row r="75" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>2016</v>
       </c>
@@ -26612,7 +26615,7 @@
         <v>74661.248000000007</v>
       </c>
     </row>
-    <row r="76" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>2016</v>
       </c>
@@ -26687,7 +26690,7 @@
         <v>85424.366000000009</v>
       </c>
     </row>
-    <row r="77" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>2016</v>
       </c>
@@ -26762,7 +26765,7 @@
         <v>90907.903999999995</v>
       </c>
     </row>
-    <row r="78" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>2016</v>
       </c>
@@ -26837,7 +26840,7 @@
         <v>58708.151000000005</v>
       </c>
     </row>
-    <row r="79" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>2017</v>
       </c>
@@ -26912,7 +26915,7 @@
         <v>571438.04300000006</v>
       </c>
     </row>
-    <row r="80" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>2017</v>
       </c>
@@ -26987,7 +26990,7 @@
         <v>341950.12</v>
       </c>
     </row>
-    <row r="81" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>2017</v>
       </c>
@@ -27062,7 +27065,7 @@
         <v>187068.174</v>
       </c>
     </row>
-    <row r="82" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>2017</v>
       </c>
@@ -27137,7 +27140,7 @@
         <v>229574.848</v>
       </c>
     </row>
-    <row r="83" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>2017</v>
       </c>
@@ -27212,7 +27215,7 @@
         <v>449602.96699999995</v>
       </c>
     </row>
-    <row r="84" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>2017</v>
       </c>
@@ -27287,7 +27290,7 @@
         <v>114841.53599999999</v>
       </c>
     </row>
-    <row r="85" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>2017</v>
       </c>
@@ -27362,7 +27365,7 @@
         <v>142017.18</v>
       </c>
     </row>
-    <row r="86" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>2017</v>
       </c>
@@ -27437,7 +27440,7 @@
         <v>138558.04399999999</v>
       </c>
     </row>
-    <row r="87" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>2017</v>
       </c>
@@ -27512,7 +27515,7 @@
         <v>108502.018</v>
       </c>
     </row>
-    <row r="88" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>2017</v>
       </c>
@@ -27587,7 +27590,7 @@
         <v>312329.10599999997</v>
       </c>
     </row>
-    <row r="89" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>2017</v>
       </c>
@@ -27662,7 +27665,7 @@
         <v>535486.68200000003</v>
       </c>
     </row>
-    <row r="90" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>2017</v>
       </c>
@@ -27737,7 +27740,7 @@
         <v>1038355.355</v>
       </c>
     </row>
-    <row r="91" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>2017</v>
       </c>
@@ -27812,7 +27815,7 @@
         <v>248108.174</v>
       </c>
     </row>
-    <row r="92" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>2017</v>
       </c>
@@ -27887,7 +27890,7 @@
         <v>173878.59599999999</v>
       </c>
     </row>
-    <row r="93" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>2017</v>
       </c>
@@ -27962,7 +27965,7 @@
         <v>424355.16600000003</v>
       </c>
     </row>
-    <row r="94" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>2017</v>
       </c>
@@ -28037,7 +28040,7 @@
         <v>484920.21299999999</v>
       </c>
     </row>
-    <row r="95" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>2017</v>
       </c>
@@ -28112,7 +28115,7 @@
         <v>103227.193</v>
       </c>
     </row>
-    <row r="96" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>2017</v>
       </c>
@@ -28187,7 +28190,7 @@
         <v>73331.452000000005</v>
       </c>
     </row>
-    <row r="97" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>2017</v>
       </c>
@@ -28262,7 +28265,7 @@
         <v>217667.29799999998</v>
       </c>
     </row>
-    <row r="98" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>2017</v>
       </c>
@@ -28337,7 +28340,7 @@
         <v>118313.371</v>
       </c>
     </row>
-    <row r="99" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>2017</v>
       </c>
@@ -28412,7 +28415,7 @@
         <v>101977.31000000001</v>
       </c>
     </row>
-    <row r="100" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>2017</v>
       </c>
@@ -28487,7 +28490,7 @@
         <v>281055.92600000004</v>
       </c>
     </row>
-    <row r="101" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>2017</v>
       </c>
@@ -28562,7 +28565,7 @@
         <v>375087.07399999996</v>
       </c>
     </row>
-    <row r="102" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>2017</v>
       </c>
@@ -28637,7 +28640,7 @@
         <v>135543.12400000001</v>
       </c>
     </row>
-    <row r="103" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>2017</v>
       </c>
@@ -28712,7 +28715,7 @@
         <v>139191.67999999999</v>
       </c>
     </row>
-    <row r="104" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>2017</v>
       </c>
@@ -28787,7 +28790,7 @@
         <v>192603.734</v>
       </c>
     </row>
-    <row r="105" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>2017</v>
       </c>
@@ -28862,7 +28865,7 @@
         <v>129017.124</v>
       </c>
     </row>
-    <row r="106" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>2017</v>
       </c>
@@ -28937,7 +28940,7 @@
         <v>193066.103</v>
       </c>
     </row>
-    <row r="107" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>2017</v>
       </c>
@@ -29012,7 +29015,7 @@
         <v>97276.100999999995</v>
       </c>
     </row>
-    <row r="108" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>2017</v>
       </c>
@@ -29087,7 +29090,7 @@
         <v>88365.527000000002</v>
       </c>
     </row>
-    <row r="109" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>2017</v>
       </c>
@@ -29162,7 +29165,7 @@
         <v>71543.373999999996</v>
       </c>
     </row>
-    <row r="110" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>2017</v>
       </c>
@@ -29237,7 +29240,7 @@
         <v>70339.364000000001</v>
       </c>
     </row>
-    <row r="111" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>2017</v>
       </c>
@@ -29312,7 +29315,7 @@
         <v>91079.281000000003</v>
       </c>
     </row>
-    <row r="112" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>2017</v>
       </c>
@@ -29387,7 +29390,7 @@
         <v>89556.243000000002</v>
       </c>
     </row>
-    <row r="113" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>2017</v>
       </c>
@@ -29462,7 +29465,7 @@
         <v>55661.291000000005</v>
       </c>
     </row>
-    <row r="114" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>2017</v>
       </c>
@@ -29537,7 +29540,7 @@
         <v>115413.69500000001</v>
       </c>
     </row>
-    <row r="115" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>2017</v>
       </c>
@@ -29612,7 +29615,7 @@
         <v>101667.97199999999</v>
       </c>
     </row>
-    <row r="116" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>2017</v>
       </c>
@@ -29687,7 +29690,7 @@
         <v>140336.04800000001</v>
       </c>
     </row>
-    <row r="117" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>2017</v>
       </c>
@@ -29762,7 +29765,7 @@
         <v>93503.638000000006</v>
       </c>
     </row>
-    <row r="118" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>2017</v>
       </c>
@@ -29837,7 +29840,7 @@
         <v>74960.436000000002</v>
       </c>
     </row>
-    <row r="119" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>2017</v>
       </c>
@@ -29912,7 +29915,7 @@
         <v>105345.107</v>
       </c>
     </row>
-    <row r="120" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>2017</v>
       </c>
@@ -29987,7 +29990,7 @@
         <v>84720.724000000002</v>
       </c>
     </row>
-    <row r="121" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>2017</v>
       </c>
@@ -30062,7 +30065,7 @@
         <v>83534.718999999997</v>
       </c>
     </row>
-    <row r="122" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>2017</v>
       </c>
@@ -30137,7 +30140,7 @@
         <v>110050.243</v>
       </c>
     </row>
-    <row r="123" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>2017</v>
       </c>
@@ -30212,7 +30215,7 @@
         <v>69157.84</v>
       </c>
     </row>
-    <row r="124" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>2017</v>
       </c>
@@ -30287,7 +30290,7 @@
         <v>68498.822</v>
       </c>
     </row>
-    <row r="125" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>2017</v>
       </c>
@@ -30362,7 +30365,7 @@
         <v>71027.769</v>
       </c>
     </row>
-    <row r="126" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>2017</v>
       </c>
@@ -30437,7 +30440,7 @@
         <v>70424.437999999995</v>
       </c>
     </row>
-    <row r="127" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>2017</v>
       </c>
@@ -30512,7 +30515,7 @@
         <v>57418.112000000001</v>
       </c>
     </row>
-    <row r="128" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>2017</v>
       </c>
@@ -30587,7 +30590,7 @@
         <v>66740.069000000003</v>
       </c>
     </row>
-    <row r="129" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>2017</v>
       </c>
@@ -30662,7 +30665,7 @@
         <v>61765.466</v>
       </c>
     </row>
-    <row r="130" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>2017</v>
       </c>
@@ -30737,7 +30740,7 @@
         <v>76867.595000000001</v>
       </c>
     </row>
-    <row r="131" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>2017</v>
       </c>
@@ -30812,7 +30815,7 @@
         <v>58209.978000000003</v>
       </c>
     </row>
-    <row r="132" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>2017</v>
       </c>
@@ -30887,7 +30890,7 @@
         <v>118576.137</v>
       </c>
     </row>
-    <row r="133" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>2017</v>
       </c>
@@ -30962,7 +30965,7 @@
         <v>86142.687000000005</v>
       </c>
     </row>
-    <row r="134" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>2017</v>
       </c>
@@ -31037,7 +31040,7 @@
         <v>96295.961999999985</v>
       </c>
     </row>
-    <row r="135" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>2017</v>
       </c>
@@ -31112,7 +31115,7 @@
         <v>87796.921000000002</v>
       </c>
     </row>
-    <row r="136" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>2017</v>
       </c>
@@ -31187,7 +31190,7 @@
         <v>71417.838000000003</v>
       </c>
     </row>
-    <row r="137" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>2017</v>
       </c>
@@ -31262,7 +31265,7 @@
         <v>68263.248999999996</v>
       </c>
     </row>
-    <row r="138" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>2017</v>
       </c>
@@ -31337,7 +31340,7 @@
         <v>68988.020999999993</v>
       </c>
     </row>
-    <row r="139" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>2017</v>
       </c>
@@ -31412,7 +31415,7 @@
         <v>61330.305999999997</v>
       </c>
     </row>
-    <row r="140" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>2017</v>
       </c>
@@ -31487,7 +31490,7 @@
         <v>76029.047000000006</v>
       </c>
     </row>
-    <row r="141" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>2017</v>
       </c>
@@ -31562,7 +31565,7 @@
         <v>65458.944999999992</v>
       </c>
     </row>
-    <row r="142" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>2017</v>
       </c>
@@ -31637,7 +31640,7 @@
         <v>106637.117</v>
       </c>
     </row>
-    <row r="143" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>2017</v>
       </c>
@@ -31712,7 +31715,7 @@
         <v>209466.78400000001</v>
       </c>
     </row>
-    <row r="144" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>2017</v>
       </c>
@@ -31787,7 +31790,7 @@
         <v>297165.592</v>
       </c>
     </row>
-    <row r="145" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>2017</v>
       </c>
@@ -31862,7 +31865,7 @@
         <v>371058.05800000002</v>
       </c>
     </row>
-    <row r="146" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>2017</v>
       </c>
@@ -31937,7 +31940,7 @@
         <v>188028.46000000002</v>
       </c>
     </row>
-    <row r="147" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>2017</v>
       </c>
@@ -32012,7 +32015,7 @@
         <v>105122.20700000001</v>
       </c>
     </row>
-    <row r="148" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>2017</v>
       </c>
@@ -32087,7 +32090,7 @@
         <v>170482.535</v>
       </c>
     </row>
-    <row r="149" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>2017</v>
       </c>
@@ -32162,7 +32165,7 @@
         <v>150008.777</v>
       </c>
     </row>
-    <row r="150" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>2017</v>
       </c>
@@ -32237,7 +32240,7 @@
         <v>113332.38400000001</v>
       </c>
     </row>
-    <row r="151" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>2017</v>
       </c>
@@ -32312,7 +32315,7 @@
         <v>112974.04300000001</v>
       </c>
     </row>
-    <row r="152" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>2017</v>
       </c>
@@ -32387,7 +32390,7 @@
         <v>74398.934999999998</v>
       </c>
     </row>
-    <row r="153" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>2017</v>
       </c>
@@ -32462,7 +32465,7 @@
         <v>85424.366000000009</v>
       </c>
     </row>
-    <row r="154" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>2017</v>
       </c>
@@ -32537,7 +32540,7 @@
         <v>91778.388000000006</v>
       </c>
     </row>
-    <row r="155" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>2017</v>
       </c>
@@ -32612,7 +32615,7 @@
         <v>56932.868000000002</v>
       </c>
     </row>
-    <row r="156" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>2018</v>
       </c>
@@ -32687,7 +32690,7 @@
         <v>604420.52100000007</v>
       </c>
     </row>
-    <row r="157" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>2018</v>
       </c>
@@ -32762,7 +32765,7 @@
         <v>366642.16200000001</v>
       </c>
     </row>
-    <row r="158" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>2018</v>
       </c>
@@ -32837,7 +32840,7 @@
         <v>188822.079</v>
       </c>
     </row>
-    <row r="159" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>2018</v>
       </c>
@@ -32912,7 +32915,7 @@
         <v>233592.53899999999</v>
       </c>
     </row>
-    <row r="160" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>2018</v>
       </c>
@@ -32987,7 +32990,7 @@
         <v>454952.54100000003</v>
       </c>
     </row>
-    <row r="161" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>2018</v>
       </c>
@@ -33062,7 +33065,7 @@
         <v>122158.99399999999</v>
       </c>
     </row>
-    <row r="162" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>2018</v>
       </c>
@@ -33137,7 +33140,7 @@
         <v>142741.16</v>
       </c>
     </row>
-    <row r="163" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>2018</v>
       </c>
@@ -33212,7 +33215,7 @@
         <v>145898.647</v>
       </c>
     </row>
-    <row r="164" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>2018</v>
       </c>
@@ -33287,7 +33290,7 @@
         <v>119849.845</v>
       </c>
     </row>
-    <row r="165" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>2018</v>
       </c>
@@ -33362,7 +33365,7 @@
         <v>324820.37</v>
       </c>
     </row>
-    <row r="166" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>2018</v>
       </c>
@@ -33437,7 +33440,7 @@
         <v>566801.12</v>
       </c>
     </row>
-    <row r="167" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>2018</v>
       </c>
@@ -33512,7 +33515,7 @@
         <v>1067449.379</v>
       </c>
     </row>
-    <row r="168" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>2018</v>
       </c>
@@ -33587,7 +33590,7 @@
         <v>217393.44500000001</v>
       </c>
     </row>
-    <row r="169" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>2018</v>
       </c>
@@ -33662,7 +33665,7 @@
         <v>161321.726</v>
       </c>
     </row>
-    <row r="170" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>2018</v>
       </c>
@@ -33737,7 +33740,7 @@
         <v>469539.46299999999</v>
       </c>
     </row>
-    <row r="171" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>2018</v>
       </c>
@@ -33812,7 +33815,7 @@
         <v>513788.80900000001</v>
       </c>
     </row>
-    <row r="172" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>2018</v>
       </c>
@@ -33887,7 +33890,7 @@
         <v>116717.31299999999</v>
       </c>
     </row>
-    <row r="173" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>2018</v>
       </c>
@@ -33962,7 +33965,7 @@
         <v>80716.001999999993</v>
       </c>
     </row>
-    <row r="174" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>2018</v>
       </c>
@@ -34037,7 +34040,7 @@
         <v>233258.42300000001</v>
       </c>
     </row>
-    <row r="175" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>2018</v>
       </c>
@@ -34112,7 +34115,7 @@
         <v>129304.4</v>
       </c>
     </row>
-    <row r="176" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>2018</v>
       </c>
@@ -34187,7 +34190,7 @@
         <v>107228.383</v>
       </c>
     </row>
-    <row r="177" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>2018</v>
       </c>
@@ -34262,7 +34265,7 @@
         <v>294360.65500000003</v>
       </c>
     </row>
-    <row r="178" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>2018</v>
       </c>
@@ -34337,7 +34340,7 @@
         <v>389817.66899999999</v>
       </c>
     </row>
-    <row r="179" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>2018</v>
       </c>
@@ -34412,7 +34415,7 @@
         <v>142807.93799999999</v>
       </c>
     </row>
-    <row r="180" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>2018</v>
       </c>
@@ -34487,7 +34490,7 @@
         <v>144392.386</v>
       </c>
     </row>
-    <row r="181" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>2018</v>
       </c>
@@ -34562,7 +34565,7 @@
         <v>191306.06400000001</v>
       </c>
     </row>
-    <row r="182" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>2018</v>
       </c>
@@ -34637,7 +34640,7 @@
         <v>137316.038</v>
       </c>
     </row>
-    <row r="183" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>2018</v>
       </c>
@@ -34712,7 +34715,7 @@
         <v>211489.28399999999</v>
       </c>
     </row>
-    <row r="184" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>2018</v>
       </c>
@@ -34787,7 +34790,7 @@
         <v>100708.557</v>
       </c>
     </row>
-    <row r="185" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>2018</v>
       </c>
@@ -34862,7 +34865,7 @@
         <v>94260.254000000015</v>
       </c>
     </row>
-    <row r="186" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>2018</v>
       </c>
@@ -34937,7 +34940,7 @@
         <v>78276.119000000006</v>
       </c>
     </row>
-    <row r="187" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>2018</v>
       </c>
@@ -35012,7 +35015,7 @@
         <v>75676.438999999998</v>
       </c>
     </row>
-    <row r="188" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>2018</v>
       </c>
@@ -35087,7 +35090,7 @@
         <v>97306.468999999997</v>
       </c>
     </row>
-    <row r="189" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>2018</v>
       </c>
@@ -35162,7 +35165,7 @@
         <v>95894.833999999988</v>
       </c>
     </row>
-    <row r="190" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>2018</v>
       </c>
@@ -35237,7 +35240,7 @@
         <v>58369.606</v>
       </c>
     </row>
-    <row r="191" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>2018</v>
       </c>
@@ -35312,7 +35315,7 @@
         <v>123864.89599999999</v>
       </c>
     </row>
-    <row r="192" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>2018</v>
       </c>
@@ -35387,7 +35390,7 @@
         <v>106368.81200000001</v>
       </c>
     </row>
-    <row r="193" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>2018</v>
       </c>
@@ -35462,7 +35465,7 @@
         <v>150783.25899999999</v>
       </c>
     </row>
-    <row r="194" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>2018</v>
       </c>
@@ -35537,7 +35540,7 @@
         <v>99026.313999999998</v>
       </c>
     </row>
-    <row r="195" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>2018</v>
       </c>
@@ -35612,7 +35615,7 @@
         <v>82146.868999999992</v>
       </c>
     </row>
-    <row r="196" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>2018</v>
       </c>
@@ -35687,7 +35690,7 @@
         <v>111871.558</v>
       </c>
     </row>
-    <row r="197" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>2018</v>
       </c>
@@ -35762,7 +35765,7 @@
         <v>93264.702000000005</v>
       </c>
     </row>
-    <row r="198" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>2018</v>
       </c>
@@ -35837,7 +35840,7 @@
         <v>88970.903000000006</v>
       </c>
     </row>
-    <row r="199" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>2018</v>
       </c>
@@ -35912,7 +35915,7 @@
         <v>117517.06300000001</v>
       </c>
     </row>
-    <row r="200" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>2018</v>
       </c>
@@ -35987,7 +35990,7 @@
         <v>67142.203999999998</v>
       </c>
     </row>
-    <row r="201" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>2018</v>
       </c>
@@ -36062,7 +36065,7 @@
         <v>70556.080999999991</v>
       </c>
     </row>
-    <row r="202" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>2018</v>
       </c>
@@ -36137,7 +36140,7 @@
         <v>73958.100999999995</v>
       </c>
     </row>
-    <row r="203" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>2018</v>
       </c>
@@ -36212,7 +36215,7 @@
         <v>71468.657999999996</v>
       </c>
     </row>
-    <row r="204" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>2018</v>
       </c>
@@ -36287,7 +36290,7 @@
         <v>60055.388999999996</v>
       </c>
     </row>
-    <row r="205" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>2018</v>
       </c>
@@ -36362,7 +36365,7 @@
         <v>69730.034</v>
       </c>
     </row>
-    <row r="206" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>2018</v>
       </c>
@@ -36437,7 +36440,7 @@
         <v>65742.326000000001</v>
       </c>
     </row>
-    <row r="207" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>2018</v>
       </c>
@@ -36512,7 +36515,7 @@
         <v>67476.495999999999</v>
       </c>
     </row>
-    <row r="208" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>2018</v>
       </c>
@@ -36587,7 +36590,7 @@
         <v>60776.280999999995</v>
       </c>
     </row>
-    <row r="209" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>2018</v>
       </c>
@@ -36662,7 +36665,7 @@
         <v>122950.016</v>
       </c>
     </row>
-    <row r="210" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>2018</v>
       </c>
@@ -36737,7 +36740,7 @@
         <v>88193.913</v>
       </c>
     </row>
-    <row r="211" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>2018</v>
       </c>
@@ -36812,7 +36815,7 @@
         <v>100796.06</v>
       </c>
     </row>
-    <row r="212" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>2018</v>
       </c>
@@ -36887,7 +36890,7 @@
         <v>92825.172999999995</v>
       </c>
     </row>
-    <row r="213" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>2018</v>
       </c>
@@ -36962,7 +36965,7 @@
         <v>75418.476999999999</v>
       </c>
     </row>
-    <row r="214" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>2018</v>
       </c>
@@ -37037,7 +37040,7 @@
         <v>70803.228000000003</v>
       </c>
     </row>
-    <row r="215" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>2018</v>
       </c>
@@ -37112,7 +37115,7 @@
         <v>73997.959000000003</v>
       </c>
     </row>
-    <row r="216" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>2018</v>
       </c>
@@ -37187,7 +37190,7 @@
         <v>64083.972000000002</v>
       </c>
     </row>
-    <row r="217" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>2018</v>
       </c>
@@ -37262,7 +37265,7 @@
         <v>78801.83</v>
       </c>
     </row>
-    <row r="218" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>2018</v>
       </c>
@@ -37337,7 +37340,7 @@
         <v>62766.368999999999</v>
       </c>
     </row>
-    <row r="219" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>2018</v>
       </c>
@@ -37412,7 +37415,7 @@
         <v>109050.113</v>
       </c>
     </row>
-    <row r="220" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>2018</v>
       </c>
@@ -37487,7 +37490,7 @@
         <v>207415.37999999998</v>
       </c>
     </row>
-    <row r="221" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>2018</v>
       </c>
@@ -37562,7 +37565,7 @@
         <v>313919.31300000002</v>
       </c>
     </row>
-    <row r="222" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>2018</v>
       </c>
@@ -37637,7 +37640,7 @@
         <v>403533.74</v>
       </c>
     </row>
-    <row r="223" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>2018</v>
       </c>
@@ -37712,7 +37715,7 @@
         <v>182370.921</v>
       </c>
     </row>
-    <row r="224" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>2018</v>
       </c>
@@ -37787,7 +37790,7 @@
         <v>103966.27800000001</v>
       </c>
     </row>
-    <row r="225" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>2018</v>
       </c>
@@ -37862,7 +37865,7 @@
         <v>176200.11599999998</v>
       </c>
     </row>
-    <row r="226" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>2018</v>
       </c>
@@ -37937,7 +37940,7 @@
         <v>151918.15299999999</v>
       </c>
     </row>
-    <row r="227" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>2018</v>
       </c>
@@ -38012,7 +38015,7 @@
         <v>107504.90700000001</v>
       </c>
     </row>
-    <row r="228" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>2018</v>
       </c>
@@ -38087,7 +38090,7 @@
         <v>102589.216</v>
       </c>
     </row>
-    <row r="229" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>2018</v>
       </c>
@@ -38162,7 +38165,7 @@
         <v>73212.801999999996</v>
       </c>
     </row>
-    <row r="230" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>2018</v>
       </c>
@@ -38237,7 +38240,7 @@
         <v>75696.574999999997</v>
       </c>
     </row>
-    <row r="231" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>2018</v>
       </c>
@@ -38312,7 +38315,7 @@
         <v>91815.154999999999</v>
       </c>
     </row>
-    <row r="232" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>2018</v>
       </c>
